--- a/Korea Restaurants Dataset Cleaned.xlsx
+++ b/Korea Restaurants Dataset Cleaned.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,15 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Price Key</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Location</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Coordinates</t>
         </is>
@@ -502,8 +507,11 @@
           <t>" food, tasty, fresh, high quality - friendly staff."</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -532,12 +540,15 @@
           <t>"super authentic , service was great and the food was yummy!"</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>6, Panton Street, Seven Dials, Bloomsbury, City of Westminster, Greater London, England, SW1Y 4DL, United Kingdom</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>(51.5093221, -0.1318048, 0.0)</t>
         </is>
@@ -570,12 +581,15 @@
           <t>"The  food was gorgeous and the staff were absolutely incredible."</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>4, Commercial Street, Dock Square, Boston, Suffolk County, Massachusetts, 02109, United States</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>(42.3595734, -71.0537089, 0.0)</t>
         </is>
@@ -608,12 +622,15 @@
           <t>"... was delicious with fresh vegetables and authentic  rice."</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Theobalds Road, Hatton Garden, Holborn, London Borough of Camden, London, Greater London, England, WC1X 8PF, United Kingdom</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>(51.5212491, -0.1143248, 0.0)</t>
         </is>
@@ -646,12 +663,15 @@
           <t>"Friendly service, generous portions, and authentic flavors every time."</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bishopsgate, Runnymede, Surrey, England, TW20 0XP, United Kingdom</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>(51.4399048, -0.5888644, 0.0)</t>
         </is>
@@ -684,12 +704,15 @@
           <t>"Absolutely delicious and authentic  food in a cute, lovely atmosphere."</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Co &amp; Ko, 72, Berwick Street, Soho, London, Greater London, England, W1F 8TD, United Kingdom</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>(51.5147561, -0.1360285, 0.0)</t>
         </is>
@@ -722,12 +745,15 @@
           <t>"Delicious authentic  food, service, and warm welcoming athmospehere !"</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>19, St. Alban's Place, Angel, Islington, London Borough of Islington, London, Greater London, England, N1 0NU, United Kingdom</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>(51.5366221, -0.1039496, 0.0)</t>
         </is>
@@ -760,12 +786,15 @@
           <t>"Really  Fried Chicken for a reasonable price."</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>71, Holloway Road, Canonbury, Highbury, London Borough of Islington, London, Greater London, England, N7 8JZ, United Kingdom</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>(51.5473785, -0.1056801, 0.0)</t>
         </is>
@@ -798,8 +827,11 @@
           <t>"Delicious  food, speedy service and nice chilled vibes."</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -828,12 +860,15 @@
           <t>"Their food is authentic,feels like eating in Korea."</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>9, Golden Square, Bendigo, City of Greater Bendigo, Victoria, 3555, Australia</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>(-36.7744862, 144.2537406, 0.0)</t>
         </is>
@@ -866,12 +901,15 @@
           <t>"This  has tasty, healthy, and reasonably priced  food."</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>OISO, 82, Caledonian Road, Pentonville, Islington, London Borough of Islington, London, Greater London, England, N1 9DN, United Kingdom</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>(51.5329126, -0.1192489, 0.0)</t>
         </is>
@@ -904,8 +942,11 @@
           <t>"Excellent  food, great service, and a nice location."</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -934,12 +975,15 @@
           <t>" food I’ve had in London and fantastic customer service."</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>240, Westferry Road, Millwall, Isle of Dogs, London Borough of Tower Hamlets, London, Greater London, England, E14 3RQ, United Kingdom</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>(51.4894875, -0.0215473, 0.0)</t>
         </is>
@@ -972,12 +1016,15 @@
           <t>"Amazing food, great service and  prices for authentic  cuisine."</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Assa, 23, Romilly Street, Soho, London, Greater London, England, W1D 5AQ, United Kingdom</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>(51.5128481, -0.1313167, 0.0)</t>
         </is>
@@ -1010,8 +1057,11 @@
           <t>"A hidden gem near Canary Wharf (15 mins) authentic  food."</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1040,12 +1090,15 @@
           <t>"Outrageously tasty, authentic  food at really reasonable prices."</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Kuma, 305, Kennington Road, Kennington Cross, Kennington, London Borough of Lambeth, London, Greater London, England, SE11 4QE, United Kingdom</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>(51.4882661, -0.1110593, 0.0)</t>
         </is>
@@ -1078,12 +1131,15 @@
           <t>"The cozy ambience and the authentic  food really made my day."</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Tea Talk, 55, Baylis Road, South Bank, Waterloo, London Borough of Lambeth, London, Greater London, England, SE1 7AZ, United Kingdom</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>(51.5003701, -0.1107859, 0.0)</t>
         </is>
@@ -1116,12 +1172,15 @@
           <t>"Really tasty  food, very friendly and attentive staff"</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>3, Stroud Green Road, Stroud Green, London Borough of Islington, London, Greater London, England, N4 2DQ, United Kingdom</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>(51.5647211, -0.1051991, 0.0)</t>
         </is>
@@ -1154,12 +1213,15 @@
           <t>"Authentic  food, generous portion, fun and humorous interior."</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Seven Sisters Road, Seven Sisters, West Green, London Borough of Haringey, London, Greater London, England, N15 5NU, United Kingdom</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>(51.5821082, -0.074447, 0.0)</t>
         </is>
@@ -1192,8 +1254,11 @@
           <t>"Fantastic authentic  food, friendly staff, clean ."</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
       <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1222,12 +1287,15 @@
           <t>"Real authentic  food at a friendly price."</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Hancook, 1, Brixton Station Road, Brixton, London Borough of Lambeth, London, Greater London, England, SW9 8PA, United Kingdom</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>(51.4635204, -0.1142476, 0.0)</t>
         </is>
@@ -1260,12 +1328,15 @@
           <t>"Impeccable service, delicious  food!"</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Sushi Waka, 75, Parkway, Chalk Farm, London Borough of Camden, London, Greater London, England, NW1 7PP, United Kingdom</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>(51.5373371, -0.1452482, 0.0)</t>
         </is>
@@ -1298,12 +1369,15 @@
           <t>"Awesome authentic  with polite and patient staff."</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>SodAeng, 283, Putney Bridge Road, Putney, London Borough of Wandsworth, London, Greater London, England, SW15 2PT, United Kingdom</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>(51.4634331, -0.2117698, 0.0)</t>
         </is>
@@ -1336,12 +1410,15 @@
           <t>"The food is very authentic and feels like im just dining in Korea."</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Hongdae Pocha, 26, Romilly Street, Soho, City of Westminster, Greater London, England, W1D 5HP, United Kingdom</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>(51.5130057, -0.1308578, 0.0)</t>
         </is>
@@ -1374,12 +1451,15 @@
           <t>"As a , I can say the  food here is incredibly authentic!"</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>353, Kennington Lane, Kennington Cross, Vauxhall, London Borough of Lambeth, London, Greater London, England, SE11 5QY, United Kingdom</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>(51.4861477, -0.119443, 0.0)</t>
         </is>
@@ -1412,12 +1492,15 @@
           <t>"Tasty  food, quick service, and a nice atmosphere."</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>King's Cross Road, Pentonville, Barnsbury, London Borough of Islington, London, Greater London, England, N1 9JR, United Kingdom</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>(51.5309473, -0.119922, 0.0)</t>
         </is>
@@ -1450,12 +1533,15 @@
           <t>"Delicious  flavours with a modern interpretation."</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>Rubedo, 35, Stoke Newington Church Street, Hackney, London Borough of Hackney, London, Greater London, England, N16 0NX, United Kingdom</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>(51.5620633, -0.0753916, 0.0)</t>
         </is>
@@ -1488,12 +1574,15 @@
           <t>"Great atmosphere, friendly + fast service, authentic  taste."</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>53, Brewer Street, Soho, City of Westminster, Greater London, England, W1F 9TL, United Kingdom</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>(51.5115192, -0.1352837, 0.0)</t>
         </is>
@@ -1526,12 +1615,15 @@
           <t>"Quick service, super tasty  food, perfect for lunch."</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>On The Bab, 305, Old Street, Shoreditch, London Borough of Hackney, London, Greater London, England, EC1V 9LA, United Kingdom</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>(51.5268331, -0.0816178, 0.0)</t>
         </is>
@@ -1564,12 +1656,15 @@
           <t>"Authentic  Flavors &amp; Excellent Service!"</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr">
         <is>
           <t>Keonbae Barbeque &amp; Beer, 20, Royal Crest Avenue, Royal Wharf, Silvertown, London Borough of Newham, London, Greater London, England, E16 2PR, United Kingdom</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>(51.5007835, 0.0289582, 0.0)</t>
         </is>
@@ -1602,12 +1697,15 @@
           <t>"This  has an authentic  flavor, and the service is great."</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t>Mukbang Pocha, 10, Golden Square, Soho, City of Westminster, Greater London, England, W1F 9HT, United Kingdom</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>(51.5116724, -0.1364903, 0.0)</t>
         </is>
@@ -1640,12 +1738,15 @@
           <t>"Excellent authentic  food coupled with fantastic service."</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t>24, The Green, New Cottages, Wennington, London, Greater London, England, RM13 9DX, United Kingdom</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>(51.5058521, 0.2195842, 0.0)</t>
         </is>
@@ -1678,12 +1779,15 @@
           <t>"The staff were very friendly and cute and  chicken ever"</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>Camberwell New Road, Elmington Estate, Camberwell, London Borough of Southwark, London, Greater London, England, SE5 7AF, United Kingdom</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>(51.4741503, -0.0933019, 0.0)</t>
         </is>
@@ -1716,12 +1820,15 @@
           <t>"very cosy authentic  - bibimbap was delish and came piping hot"</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr">
         <is>
           <t>The Petite Corée, 98, West End Lane, West Hampstead, London Borough of Camden, London, Greater London, England, NW6 2LH, United Kingdom</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>(51.546199, -0.1909758, 0.0)</t>
         </is>
@@ -1754,12 +1861,15 @@
           <t>"Authentic  food, reasonably priced, and halal too."</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
         <is>
           <t>Curry Leaves, 103, Falcon Road, Falcon Estate, Clapham Junction, London Borough of Wandsworth, London, Greater London, England, SW11 2PF, United Kingdom</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>(51.4668755, -0.1696867, 0.0)</t>
         </is>
@@ -1792,12 +1902,15 @@
           <t>"The ambiance, and taste was exactly like in South Korea."</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr">
         <is>
           <t>Pochawa Grill, 29, Wardour Street, Chinatown, London, Greater London, England, W1D 6PS, United Kingdom</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>(51.5112285, -0.132222, 0.0)</t>
         </is>
@@ -1830,12 +1943,15 @@
           <t>"Lovely food, lovely service, great  vibes."</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G38" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" t="inlineStr">
         <is>
           <t>Jumak 39, 39, Panton Street, Seven Dials, Bloomsbury, London, Greater London, England, SW1Y 4EA, United Kingdom</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>(51.5095096, -0.1319607, 0.0)</t>
         </is>
@@ -1868,12 +1984,15 @@
           <t>"Delicious  food and the store is very clean and tidy."</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
         <is>
           <t>Earls Court Road, Memphis, Shelby County, West Tennessee, Tennessee, 38118, United States</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>(35.0470571, -89.9561062, 0.0)</t>
         </is>
@@ -1906,12 +2025,15 @@
           <t>"Very cute  with nice staff and delicious, clean food!"</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr">
         <is>
           <t>Seoul90, 90, Old Street, Saint Luke's, Finsbury, London Borough of Islington, London, Greater London, England, EC1V 9AZ, United Kingdom</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>(51.5245526, -0.0940604, 0.0)</t>
         </is>
@@ -1944,12 +2066,15 @@
           <t>"Authentic  food, amazing service and cozy atmosphere!"</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
         <is>
           <t>Shaftesbury Avenue, St Giles, Bloomsbury, City of Westminster, Greater London, England, W1D 6NE, United Kingdom</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>(51.512075, -0.1317982, 0.0)</t>
         </is>
@@ -1982,12 +2107,15 @@
           <t>" first  food experience, service outstanding thanks to Paola."</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" t="inlineStr">
         <is>
           <t>4, Panton Street, Seven Dials, Bloomsbury, City of Westminster, Greater London, England, SW1Y 4DL, United Kingdom</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>(51.509298, -0.1319465, 0.0)</t>
         </is>
@@ -2020,12 +2148,15 @@
           <t>"So authentic, delicious high-quality food served by lovely  staff."</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr">
         <is>
           <t>Центральная улица, район Левобережный, Дубна, городской округ Дубна, Московская область, Центральный федеральный округ, 141980, Россия</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>(56.7569673, 37.1343905, 0.0)</t>
         </is>
@@ -2058,8 +2189,11 @@
           <t>"Each dish highlights key flavours and ingredients from Korea which I loved."</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
       <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2088,12 +2222,15 @@
           <t>"Loved its flavoursome authentic  foods and friendly service."</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
         <is>
           <t>Kimchimama, 28, Upper Tachbrook Street, Tachbrook Estate, Victoria, London, Greater London, England, SW1V 1SW, United Kingdom</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>(51.4927808, -0.139382, 0.0)</t>
         </is>
@@ -2126,12 +2263,15 @@
           <t>"Delicious and authentic  cuisine in a relaxed atmosphere."</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
         <is>
           <t>Yming, 35-36, Greek Street, Soho, London, Greater London, England, W1D 5DL, United Kingdom</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>(51.5129997, -0.1303048, 0.0)</t>
         </is>
@@ -2164,12 +2304,15 @@
           <t>"Authentic  cuisine in a calm refined setting."</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t>Courtfield Road, The Boltons, South Kensington, Royal Borough of Kensington and Chelsea, London, Greater London, England, SW7 4QH, United Kingdom</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>(51.4940091, -0.1832145, 0.0)</t>
         </is>
@@ -2202,12 +2345,15 @@
           <t>"Nice choice of authentic  food, decent price and lovely service :)"</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
         <is>
           <t>887, Finchley Road, West Cradock, Cradock, Portsmouth, Virginia, 23702, United States</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>(36.8012431, -76.32539, 0.0)</t>
         </is>
@@ -2240,12 +2386,15 @@
           <t>"Excellent  food, friendly service,  value for money."</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr">
         <is>
           <t>1, Kingly Street, Soho, City of Westminster, Greater London, England, W1B 5PT, United Kingdom</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>(51.5121852, -0.1384422, 0.0)</t>
         </is>
@@ -2278,12 +2427,15 @@
           <t>"Amazing authentic  cuisine in a small unassuming ."</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
         <is>
           <t>London Naru, 21, Lovibond Lane, Greenwich Town Centre, Royal Borough of Greenwich, London, Greater London, England, SE10 9FY, United Kingdom</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>(51.4775165, -0.0155685, 0.0)</t>
         </is>
@@ -2316,12 +2468,15 @@
           <t>"The food is incredibly authentic – just like what I had in Korea."</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="inlineStr">
         <is>
           <t>Little Korea, 2-3, Lisle Street, Chinatown, London, Greater London, England, WC2H 7BG, United Kingdom</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>(51.5111938, -0.1316396, 0.0)</t>
         </is>
@@ -2354,12 +2509,15 @@
           <t>"Bbq meat was thick and juicy, one of the  bbqs I had in London!"</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr">
         <is>
           <t>Bullgogi Restaurant, 145, Notting Hill Gate, Notting Hill, Royal Borough of Kensington and Chelsea, London, Greater London, England, W8 7TH, United Kingdom</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>(51.5084902, -0.1996347, 0.0)</t>
         </is>
@@ -2392,12 +2550,15 @@
           <t>"The  pork belly and bulgogi meat were very tender and tasty."</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="G53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H53" t="inlineStr">
         <is>
           <t>88, Shaftesbury Avenue, St Giles, Bloomsbury, City of Westminster, Greater London, England, W1D 6NE, United Kingdom</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>(51.5120379, -0.1315356, 0.0)</t>
         </is>
@@ -2430,8 +2591,11 @@
           <t>"This  is so authentic, I almost felt like I was in Seoul!"</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
       <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2460,12 +2624,15 @@
           <t>"The very  food I’ve had outside of Korea - and lovely service."</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
         <is>
           <t>Riccarton Inn, 52, Old Street, Riccarton, Kilmarnock, East Ayrshire, Alba / Scotland, KA1 4DX, United Kingdom</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>(55.5952078, -4.4969592, 0.0)</t>
         </is>
@@ -2498,12 +2665,15 @@
           <t>"The atmosphere and quality of food is that of a  in Korea."</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
         <is>
           <t>Kangnam Pocha, 176, Drury Lane, Seven Dials, Bloomsbury, London Borough of Camden, London, Greater London, England, WC2B 5QF, United Kingdom</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>(51.5155894, -0.1233544, 0.0)</t>
         </is>
@@ -2536,12 +2706,15 @@
           <t>"Every dishes tasted absolutely like  flavor, spicy and strong."</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
         <is>
           <t>14, Great Russell Street, St Giles, Bloomsbury, London Borough of Camden, London, Greater London, England, WC1B 3LA, United Kingdom</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>(51.5172521, -0.1295581, 0.0)</t>
         </is>
@@ -2574,12 +2747,15 @@
           <t>"Authentic  dishes, moderate prices and vivid atmosphere."</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
         <is>
           <t>Lime Orange, 312, Vauxhall Bridge Road, Victoria, London, Greater London, England, SW1V 1AA, United Kingdom</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>(51.4956537, -0.1418962, 0.0)</t>
         </is>
@@ -2612,12 +2788,15 @@
           <t>"Amazing  food, reasonable price and friendly staff!"</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr">
         <is>
           <t>60, Battersea Rise, York Road Estate, Clapham Junction, London Borough of Wandsworth, London, Greater London, England, SW11 1HH, United Kingdom</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>(51.4609881, -0.1658513, 0.0)</t>
         </is>
@@ -2650,12 +2829,15 @@
           <t>"Very decent portion sizes and delicious  food."</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr">
         <is>
           <t>New Malden, Royal Borough of Kingston upon Thames, London, Greater London, England, KT3 3HN, United Kingdom</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>(51.4053347, -0.2634066, 0.0)</t>
         </is>
@@ -2688,12 +2870,15 @@
           <t>"Simple  food, fast and friendly service."</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
         <is>
           <t>13, Artillery Passage, Spitalfields, Whitechapel, London Borough of Tower Hamlets, London, Greater London, England, E1 7LJ, United Kingdom</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>(51.5182087, -0.0774785, 0.0)</t>
         </is>
@@ -2726,12 +2911,15 @@
           <t>"Yummy authentic  food with the friendliest staff!"</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr">
         <is>
           <t>25, Harbour Way, Foord, Folkestone, Folkestone and Hythe, Kent, England, CT20 1NE, United Kingdom</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>(51.0815445, 1.1848382, 0.0)</t>
         </is>
@@ -2764,12 +2952,15 @@
           <t>"Great  food  and huge portions, accompanied with lovely drinks."</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr">
         <is>
           <t>Korean BBQ and Vegan Restaurant, 107, Whitecross Street, Saint Luke's, Finsbury, London Borough of Islington, London, Greater London, England, EC1Y 8JD, United Kingdom</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>(51.5221871, -0.0928739, 0.0)</t>
         </is>
@@ -2802,12 +2993,15 @@
           <t>"Great authentic  cuisine and with  very pleasant service"</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
         <is>
           <t>9, Woolwich Road, Clacton-on-Sea, Tendring, Essex, England, CO16 8UW, United Kingdom</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>(51.8010263, 1.1349051, 0.0)</t>
         </is>
@@ -2840,12 +3034,15 @@
           <t>"Delicious  food, excellent service and fairly priced."</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr">
         <is>
           <t>S &amp; S Cycles, 29, Chapel Market, Angel, Barnsbury, London Borough of Islington, London, Greater London, England, N1 9EN, United Kingdom</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>(51.5336419, -0.1083763, 0.0)</t>
         </is>
@@ -2878,12 +3075,15 @@
           <t>"Authentic  food that tastes like the ones I had in South Korea."</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
         <is>
           <t>Bunsik, 62, Charing Cross Road, Seven Dials, Bloomsbury, City of Westminster, Greater London, England, WC2H 0HR, United Kingdom</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>(51.5123222, -0.1283906, 0.0)</t>
         </is>
@@ -2916,14 +3116,17 @@
           <t>"Very friendly staff, and authentic  taste."</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Watford Way, Grahame Park, Mill Hill, London Borough of Barnet, London, Greater London, England, NW7 2QR, United Kingdom</t>
-        </is>
+      <c r="G67" t="n">
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(51.6041242, -0.2387065, 0.0)</t>
+          <t>Watford Way, Hendon Central, London Borough of Barnet, London, Greater London, England, NW4 3HA, United Kingdom</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>(51.5855206, -0.2305324, 0.0)</t>
         </is>
       </c>
     </row>
@@ -2954,12 +3157,15 @@
           <t>"Their bulgogi is to die for - seriously, I could eat it every day."</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="G68" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" t="inlineStr">
         <is>
           <t>451, Edgware Road, St. John's Wood, London, Greater London, England, W2 1TH, United Kingdom</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>(51.524345, -0.1768632, 0.0)</t>
         </is>
@@ -2992,12 +3198,15 @@
           <t>"Fantastic  cuisine, impeccable service, and a delightful ambiance."</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
         <is>
           <t>Fairly Square, 51, Red Lion Street, Gray's Inn, Holborn, London Borough of Camden, London, Greater London, England, WC1R 4PF, United Kingdom</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>(51.5197872, -0.11744, 0.0)</t>
         </is>
@@ -3030,12 +3239,15 @@
           <t>"Delicious fresh  cuisine in a lovely spacious environment."</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr">
         <is>
           <t>24, Goldhawk Road, Shepherd's Bush, London Borough of Hammersmith and Fulham, London, Greater London, England, W12 8DH, United Kingdom</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>(51.5028509, -0.2251786, 0.0)</t>
         </is>
@@ -3068,14 +3280,17 @@
           <t>"Authentic  food with very reasonable prices."</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Dalston Lane, De Beauvoir Town, Dalston, London Borough of Hackney, London, Greater London, England, E8 3DE, United Kingdom</t>
-        </is>
+      <c r="G71" t="n">
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(51.5462377, -0.0750985, 0.0)</t>
+          <t>Dalston Lane, Lower Clapton, Shacklewell, London Borough of Hackney, London, Greater London, England, E8 1NG, United Kingdom</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>(51.5483083, -0.0654011, 0.0)</t>
         </is>
       </c>
     </row>
@@ -3106,12 +3321,15 @@
           <t>"Great and fast service, some of the  real  food outside of Korea."</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
         <is>
           <t>Tohbang, 164, Clerkenwell Road, Hatton Garden, Holborn, London Borough of Camden, London, Greater London, England, EC1R 5DU, United Kingdom</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>(51.5221016, -0.1109801, 0.0)</t>
         </is>
@@ -3144,12 +3362,15 @@
           <t>"Authentic  food in a nice setting."</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr">
         <is>
           <t>Bari Bari, 24, White Church Lane, East Smithfield, Whitechapel, London Borough of Tower Hamlets, London, Greater London, England, E1 7QR, United Kingdom</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>(51.515279, -0.0687031, 0.0)</t>
         </is>
@@ -3182,12 +3403,15 @@
           <t>"... food and service - such a fun and easy experience of  bbq!"</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr">
         <is>
           <t>196, Lavender Hill, Falcon Estate, Clapham Junction, London Borough of Wandsworth, London, Greater London, England, SW11 5TQ, United Kingdom</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>(51.4643669, -0.1636423, 0.0)</t>
         </is>
@@ -3220,12 +3444,15 @@
           <t>"Cosy, cute decor and lovely staff, and the food was fantastic."</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
         <is>
           <t>15, Craven Terrace, Paddington, London, Greater London, England, W2 3EL, United Kingdom</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>(51.5127155, -0.1789616, 0.0)</t>
         </is>
@@ -3258,12 +3485,15 @@
           <t>"For affordable  food in North London, this is a  spot."</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
         <is>
           <t>SSÄM, 241, Holloway Road, Lower Holloway, Holloway, London Borough of Islington, London, Greater London, England, N7 8HG, United Kingdom</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>(51.551584, -0.1112353, 0.0)</t>
         </is>
@@ -3297,12 +3527,15 @@
 Great food, great prices and great staff!"</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
         <is>
           <t>116, New Kent Road, Browning Estate, Walworth, London Borough of Southwark, London, Greater London, England, SE1 6TU, United Kingdom</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>(51.4939459, -0.093952, 0.0)</t>
         </is>
@@ -3335,12 +3568,15 @@
           <t>"Authentic  deliciousness and wonderful service."</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
         <is>
           <t>30, Lower Marsh, South Bank, Waterloo, London Borough of Lambeth, London, Greater London, England, SE1 7RG, United Kingdom</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>(51.5009732, -0.1121265, 0.0)</t>
         </is>
@@ -3373,12 +3609,15 @@
           <t>"The food quality is far better than any other  in London."</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
         <is>
           <t>Zanchi, 113-115, Praed Street, Paddington, London, Greater London, England, W2 1RL, United Kingdom</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>(51.5168202, -0.1730971, 0.0)</t>
         </is>
@@ -3412,12 +3651,15 @@
 Highly recommend it to everyone"</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="G80" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr">
         <is>
           <t>New World, 1, Gerrard Place, Chinatown, London, Greater London, England, W1D 5PA, United Kingdom</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>(51.5123678, -0.1303581, 0.0)</t>
         </is>
@@ -3450,12 +3692,15 @@
           <t>"Amazing authentic  food, the atmosphere is also very authentic."</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="G81" t="n">
+        <v>2</v>
+      </c>
+      <c r="H81" t="inlineStr">
         <is>
           <t>Bi Won, 24, Coptic Street, St Giles, Bloomsbury, London Borough of Camden, London, Greater London, England, WC1A 1NT, United Kingdom</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>(51.5172252, -0.1258364, 0.0)</t>
         </is>
@@ -3488,12 +3733,15 @@
           <t>"Hidden away little gem, amazing  food and wonderful service."</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="G82" t="n">
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr">
         <is>
           <t>New Malden, Royal Borough of Kingston upon Thames, London, Greater London, England, KT3 3HN, United Kingdom</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>(51.4053347, -0.2634066, 0.0)</t>
         </is>
@@ -3526,12 +3774,15 @@
           <t>"The bibimbap here is phenomenal — easily the  I’ve ever had."</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
         <is>
           <t>345, North End Road, Town of German, Chenango County, New York, 13040, United States</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>(42.529996, -75.8357087, 0.0)</t>
         </is>
@@ -3564,12 +3815,15 @@
           <t>"Fantastic service, great authentic  food, and nice atmosphere!"</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr">
         <is>
           <t>31-32, Poland Street, Soho, Camden Town, City of Westminster, Greater London, England, W1F 8PZ, United Kingdom</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>(51.515529, -0.1374287, 0.0)</t>
         </is>
@@ -3602,14 +3856,17 @@
           <t>"Excellent  authentic taste and  service from very kind staffs."</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>34, Durham Road, Colney Hatch, London Borough of Barnet, London, Greater London, England, N2 9DT, United Kingdom</t>
-        </is>
+      <c r="G85" t="n">
+        <v>2</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(51.5920537, -0.1605419, 0.0)</t>
+          <t>34,34A,34B,34C, Durham Road, Cottenham Park, Raynes Park, London Borough of Merton, London, Greater London, England, SW20 0TL, United Kingdom</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>(51.4105567, -0.2325984, 0.0)</t>
         </is>
       </c>
     </row>
@@ -3640,12 +3897,15 @@
           <t>"Very nice  bbq, great service, nice food, reasonable prices."</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="G86" t="n">
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr">
         <is>
           <t>Kkini, 131, Fortess Road, Tufnell Park, London Borough of Camden, London, Greater London, England, NW5 2HR, United Kingdom</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>(51.5559777, -0.1392977, 0.0)</t>
         </is>
@@ -3678,14 +3938,17 @@
           <t>"This  served authentic  dishes which were delicious."</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="G87" t="n">
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr">
         <is>
           <t>Horseferry Road, Westminster, Millbank, London, Greater London, England, SW1P 2AW, United Kingdom</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>(51.4948018, -0.1260909, 0.0)</t>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>(51.4947971, -0.1259519, 0.0)</t>
         </is>
       </c>
     </row>
@@ -3716,12 +3979,15 @@
           <t>"Delicious food, big portions and fair prices."</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
         <is>
           <t>Camden Lock Place, Primrose Hill, Chalk Farm, London Borough of Camden, London, Greater London, England, NW1 8AF, United Kingdom</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>(51.5415134, -0.1463158, 0.0)</t>
         </is>
@@ -3754,12 +4020,15 @@
           <t>"Great  food, great staff and wide range of cocktails."</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr">
         <is>
           <t>Spices Balti House, 10, Chapel Market, Angel, Barnsbury, London Borough of Islington, London, Greater London, England, N1 9EZ, United Kingdom</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>(51.5335221, -0.1101832, 0.0)</t>
         </is>
@@ -3792,8 +4061,11 @@
           <t>"Very yummy  bbq - homemade kimchi and gochujang sauce were great :)"</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>2</v>
+      </c>
       <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3822,12 +4094,15 @@
           <t>"Delicious authentic  food 🤤 and excellent service!"</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="G91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr">
         <is>
           <t>New Malden, Royal Borough of Kingston upon Thames, London, Greater London, England, KT3 3HN, United Kingdom</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>(51.4053347, -0.2634066, 0.0)</t>
         </is>
@@ -3860,12 +4135,15 @@
           <t>"Authentic  food and decent price with nice owner!!"</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
         <is>
           <t>Chrysanthemum, 123, Lillie Road, Walham Green, West Kensington, London Borough of Hammersmith and Fulham, London, Greater London, England, SW6 7SX, United Kingdom</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>(51.4847389, -0.2035024, 0.0)</t>
         </is>
@@ -3898,12 +4176,15 @@
           <t>"Great  spot with delicious food, bold flavors, and a cozy vibe."</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Bento Bab, 13, Bowling Green Lane, Clerkenwell Green, Clerkenwell, London Borough of Islington, London, Greater London, England, EC1R 0BD, United Kingdom</t>
-        </is>
+      <c r="G93" t="n">
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr">
+        <is>
+          <t>Bento Bab, 13, Bowling Green Lane, Clerkenwell Green, Clerkenwell, London Borough of Islington, London, Greater London, England, EC1R 0BU, United Kingdom</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>(51.5242883, -0.1077709, 0.0)</t>
         </is>
@@ -3936,12 +4217,15 @@
           <t>"Amazing authentic  food and size dishes with a nice homey environment."</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="G94" t="n">
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr">
         <is>
           <t>New Malden, Royal Borough of Kingston upon Thames, London, Greater London, England, KT3 3HN, United Kingdom</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>(51.4053347, -0.2634066, 0.0)</t>
         </is>
@@ -3974,12 +4258,15 @@
           <t>"Loved the tteokbokki, fried seaweed rolls, and crispy spring onion chicken."</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
         <is>
           <t>7, The Boulevard, Cheltenham, Sydney, The Council of the Shire of Hornsby, New South Wales, 2119, Australia</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>(-33.7581008, 151.0779703, 0.0)</t>
         </is>
@@ -4012,12 +4299,15 @@
           <t>"Well priced freshly made  food in a friendly clean environment."</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
         <is>
           <t>47, Margaret Street, East Marylebone, Fitzrovia, Camden Town, City of Westminster, Greater London, England, W1W 8SB, United Kingdom</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>(51.516376, -0.141855, 0.0)</t>
         </is>
@@ -4050,12 +4340,15 @@
           <t>"This shop is a clean and delicious  at an affordable price."</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
         <is>
           <t>Catopia, 8, Great Russell Street, St Giles, Bloomsbury, London Borough of Camden, London, Greater London, England, W1T 7LA, United Kingdom</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>(51.5171574, -0.129976, 0.0)</t>
         </is>
@@ -4088,8 +4381,11 @@
           <t>"Lovely little  place with great food and amazing service."</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
       <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4118,12 +4414,15 @@
           <t>"Enjoyed the tteokbokki here - lots of flavour + generous portion."</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
         <is>
           <t>Leather Garments, 230, Camden High Street, Chalk Farm, London Borough of Camden, London, Greater London, England, NW1 8QS, United Kingdom</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>(51.5409868, -0.1441947, 0.0)</t>
         </is>
@@ -4156,12 +4455,15 @@
           <t>"Kimchi Fried rice is so tasty and authentic."</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
         <is>
           <t>On The Bab, 9, Ludgate Broadway, Blackfriars, City of London, Greater London, England, EC4V 6DU, United Kingdom</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>(51.5134755, -0.1025608, 0.0)</t>
         </is>
@@ -4195,12 +4497,15 @@
 Please Book a table..."</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="G101" t="n">
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr">
         <is>
           <t>Yanji BBQ, 151-153, Bethnal Green Road, Spitalfields, Whitechapel, London Borough of Tower Hamlets, London, Greater London, England, E2 7DG, United Kingdom</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>(51.525465, -0.0706488, 0.0)</t>
         </is>
@@ -4229,12 +4534,15 @@
           <t>"This authentic  has delicious food and have lovely staff."</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="G102" t="n">
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr">
         <is>
           <t>Namibia</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>(-23.2335499, 17.3231107, 0.0)</t>
         </is>
@@ -4267,12 +4575,15 @@
           <t>"Perfectly crispy fried chicken fresh from a  kitchen."</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="inlineStr">
         <is>
           <t>New Malden, Royal Borough of Kingston upon Thames, London, Greater London, England, KT3 3HN, United Kingdom</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>(51.4053347, -0.2634066, 0.0)</t>
         </is>
@@ -4305,12 +4616,15 @@
           <t>"Great  BBQ, reasonable prices, very friendly service"</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="G104" t="n">
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr">
         <is>
           <t>New Malden, Royal Borough of Kingston upon Thames, London, Greater London, England, KT3 3HN, United Kingdom</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>(51.4053347, -0.2634066, 0.0)</t>
         </is>
@@ -4343,12 +4657,15 @@
           <t>"I lived in Seoul for years and this was a real authentic  meal!"</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="G105" t="n">
+        <v>2</v>
+      </c>
+      <c r="H105" t="inlineStr">
         <is>
           <t>16, Hanway Street, St Giles, Bloomsbury, Camden Town, London, Greater London, England, W1T 1UE, United Kingdom</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>(51.5169401, -0.1317826, 0.0)</t>
         </is>
@@ -4381,8 +4698,11 @@
           <t>"... away by the freshness of the meat marinated in  sauces."</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr"/>
+      <c r="G106" t="n">
+        <v>2</v>
+      </c>
       <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4412,12 +4732,15 @@
 Fast service and plenty for the money"</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
         <is>
           <t>Bunsik, 19, Villiers Street, Covent Garden, Waterloo, London, Greater London, England, WC2N 6ND, United Kingdom</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>(51.5083121, -0.1239667, 0.0)</t>
         </is>
@@ -4450,12 +4773,15 @@
           <t>"It really felt authentic and real  cuisine and atmosphere."</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
         <is>
           <t>Hozi, 25-27, Theobalds Road, Gray's Inn, Holborn, London Borough of Camden, London, Greater London, England, WC1X 8SP, United Kingdom</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>(51.5201852, -0.1178185, 0.0)</t>
         </is>
@@ -4488,12 +4814,15 @@
           <t>"Great service, tasty authentic  food, big portions&amp; great value."</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="G109" t="n">
+        <v>2</v>
+      </c>
+      <c r="H109" t="inlineStr">
         <is>
           <t>Spicy Grill, 122, Golders Green Road, Golders Green, London Borough of Barnet, London, Greater London, England, NW11 8HP, United Kingdom</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>(51.5739245, -0.2007587, 0.0)</t>
         </is>
@@ -4526,12 +4855,15 @@
           <t>"Perfect home-style and authentic  food made fresh."</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
         <is>
           <t>Your Mum's Kitchen, 17, Goldhurst Terrace, Swiss Cottage, South Hampstead, London Borough of Camden, London, Greater London, England, NW6 3HX, United Kingdom</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>(51.5457053, -0.1795179, 0.0)</t>
         </is>
@@ -4564,12 +4896,15 @@
           <t>"Amazing authentic  food, fast service and fairly priced!!"</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
         <is>
           <t>Bibimbab Cafe, 37, Museum Street, St Giles, Bloomsbury, London Borough of Camden, London, Greater London, England, WC1A 1LP, United Kingdom</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>(51.5181077, -0.1257753, 0.0)</t>
         </is>
@@ -4602,12 +4937,15 @@
           <t>"Hi to every one ,this is our first time in  iteaja ."</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="G112" t="n">
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr">
         <is>
           <t>9, Golden Square, Bendigo, City of Greater Bendigo, Victoria, 3555, Australia</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>(-36.7744862, 144.2537406, 0.0)</t>
         </is>
@@ -4640,12 +4978,15 @@
           <t>"The beef bibimpap was very delicious so I thoroughly enjoyed that."</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="G113" t="n">
+        <v>2</v>
+      </c>
+      <c r="H113" t="inlineStr">
         <is>
           <t>21-22, Great Castle Street, East Marylebone, Fitzrovia, Camden Town, City of Westminster, Greater London, England, W1G 0JN, United Kingdom</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>(51.515929, -0.1426987, 0.0)</t>
         </is>
@@ -4678,12 +5019,15 @@
           <t>"The food, the staff and an attention to the details is just incredible."</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="G114" t="n">
+        <v>3</v>
+      </c>
+      <c r="H114" t="inlineStr">
         <is>
           <t>22, Hanover Square, Stranraer, Dumfries and Galloway, Alba / Scotland, DG9 7HT, United Kingdom</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>(54.9017703, -5.0245215, 0.0)</t>
         </is>
@@ -4716,12 +5060,15 @@
           <t>"Great choice of  food, the waitress was very nice and efficient."</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
         <is>
           <t>Go Po Cha, 57, Baylis Road, South Bank, Waterloo, London Borough of Lambeth, London, Greater London, England, SE1 7AZ, United Kingdom</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>(51.5002886, -0.1108388, 0.0)</t>
         </is>
@@ -4754,12 +5101,15 @@
           <t>"Lovely food, generous portion and decent price"</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
         <is>
           <t>Sushi &amp; More, 9, Northways Parade, Belsize Park, London Borough of Camden, London, Greater London, England, NW3 5EN, United Kingdom</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>(51.544763, -0.1756894, 0.0)</t>
         </is>
@@ -4792,12 +5142,15 @@
           <t>"So many amazing flavors, succulent meat, great ambiance,  service."</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
+      <c r="H117" t="inlineStr">
         <is>
           <t>Wingmans, 29-31, Old Compton Street, Soho, London, Greater London, England, W1D 5JS, United Kingdom</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>(51.5129947, -0.1315053, 0.0)</t>
         </is>
@@ -4830,14 +5183,17 @@
           <t>"Every dish we ordered was packed with flavor and beautifully presented."</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>Broadwick Street, Soho, City of Westminster, Greater London, England, W1F 7AL, United Kingdom</t>
-        </is>
+      <c r="G118" t="n">
+        <v>3</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(51.5132243, -0.137103, 0.0)</t>
+          <t>Broadwick Street, Soho, City of Westminster, Greater London, England, W1F 9QL, United Kingdom</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>(51.5136207, -0.1356763, 0.0)</t>
         </is>
       </c>
     </row>
@@ -4868,8 +5224,11 @@
           <t>"Amazing halal  hot dogs and great service"</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr"/>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
       <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4898,14 +5257,17 @@
           <t>"Delicious  BBQ place, friendly staff and attentive service."</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Hampstead Road, Fitzrovia, London Borough of Camden, London, Greater London, England, NW1 3EA, United Kingdom</t>
-        </is>
+      <c r="G120" t="n">
+        <v>2</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(51.5325522, -0.1393367, 0.0)</t>
+          <t>Hampstead Road, Fitzrovia, London Borough of Camden, London, Greater London, England, NW1 3EL, United Kingdom</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>(51.527678, -0.1386389, 0.0)</t>
         </is>
       </c>
     </row>
@@ -4936,12 +5298,15 @@
           <t>"Exquisite food, great service and beautiful interior"</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="G121" t="n">
+        <v>3</v>
+      </c>
+      <c r="H121" t="inlineStr">
         <is>
           <t>22, Hanover Square, Stranraer, Dumfries and Galloway, Alba / Scotland, DG9 7HT, United Kingdom</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>(54.9017703, -5.0245215, 0.0)</t>
         </is>
@@ -4974,12 +5339,15 @@
           <t>" service, fast + fresh, delicious food - 10/10"</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="G122" t="n">
+        <v>2</v>
+      </c>
+      <c r="H122" t="inlineStr">
         <is>
           <t>Bancone, 39, William IV Street, Covent Garden, Bloomsbury, London, Greater London, England, WC2N 4DD, United Kingdom</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>(51.509547, -0.1264122, 0.0)</t>
         </is>
@@ -5012,12 +5380,15 @@
           <t>"Authentic  and reasonably priced."</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="G123" t="n">
+        <v>2</v>
+      </c>
+      <c r="H123" t="inlineStr">
         <is>
           <t>Koba, 11, Rathbone Street, St Giles, Fitzrovia, London Borough of Camden, London, Greater London, England, W1T 1NA, United Kingdom</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>(51.5178343, -0.1348568, 0.0)</t>
         </is>
@@ -5050,12 +5421,15 @@
           <t>"delicious food, great service, everything fresh, fast and tasty"</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="G124" t="n">
+        <v>2</v>
+      </c>
+      <c r="H124" t="inlineStr">
         <is>
           <t>9, East Russell Street, Italian Village, Columbus, Franklin County, Ohio, 43215, United States</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>(39.9756747, -83.0029667, 0.0)</t>
         </is>
@@ -5088,12 +5462,15 @@
           <t>"Lovely service great  fried chicken"</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
         <is>
           <t>Fish Plaice, 32, Museum Street, St Giles, Bloomsbury, London Borough of Camden, London, Greater London, England, WC1A 1LQ, United Kingdom</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t>(51.5179567, -0.1260685, 0.0)</t>
         </is>
@@ -5126,12 +5503,15 @@
           <t>"Fresh, amazing, tasty, great portion, decent prices"</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
         <is>
           <t>33, Haymarket, Seven Dials, Bloomsbury, City of Westminster, Greater London, England, SW1Y 4HA, United Kingdom</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
+      <c r="I126" t="inlineStr">
         <is>
           <t>(51.5099098, -0.1328048, 0.0)</t>
         </is>
@@ -5164,12 +5544,15 @@
           <t>"As a , I guarantee you that THIS is authentic -style chicken."</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
         <is>
           <t>WingWing Krispy Chicken, 30, Woburn Place, St Pancras, London Borough of Camden, London, Greater London, England, WC1H 0JR, United Kingdom</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>(51.5244813, -0.127931, 0.0)</t>
         </is>
@@ -5204,12 +5587,15 @@
  food in brick lane"</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
         <is>
           <t>Exit, 174, Brick Lane, Spitalfields, Whitechapel, London Borough of Tower Hamlets, London, Greater London, England, E1 6RU, United Kingdom</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
+      <c r="I128" t="inlineStr">
         <is>
           <t>(51.5225097, -0.0714638, 0.0)</t>
         </is>
@@ -5242,12 +5628,15 @@
           <t>"Great portion sizes, great service and lovely atmosphere!"</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="G129" t="n">
+        <v>3</v>
+      </c>
+      <c r="H129" t="inlineStr">
         <is>
           <t>The Mango Tree, 46, Grosvenor Place, Belgravia, London, Greater London, England, SW1X 7EQ, United Kingdom</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
+      <c r="I129" t="inlineStr">
         <is>
           <t>(51.498271, -0.1472742, 0.0)</t>
         </is>
@@ -5280,12 +5669,15 @@
           <t>"10/10 would recommend to anyone looking for an authentic  experience!"</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
         <is>
           <t>Bibimbap, 39, Leadenhall Market, City of London, Greater London, England, EC3V 1LR, United Kingdom</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
+      <c r="I130" t="inlineStr">
         <is>
           <t>(51.5124419, -0.083746, 0.0)</t>
         </is>
@@ -5321,8 +5713,11 @@
 Amazing staff and service."</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr"/>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
       <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5351,12 +5746,15 @@
           <t>"Authentic delicious  food in  portions and reasonable prices."</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="G132" t="n">
+        <v>2</v>
+      </c>
+      <c r="H132" t="inlineStr">
         <is>
           <t>15, Frith Street, Soho, London, Greater London, England, W1D 4RF, United Kingdom</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="I132" t="inlineStr">
         <is>
           <t>(51.5138092, -0.1313804, 0.0)</t>
         </is>
@@ -5389,12 +5787,15 @@
           <t>"Delicious  food, The spicy chicken was crispy and full of flavor."</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
         <is>
           <t>Royal Docks, 10, Harbour Exchange Square, Isle of Dogs, London Borough of Tower Hamlets, London, Greater London, England, E14 9GE, United Kingdom</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="I133" t="inlineStr">
         <is>
           <t>(51.498282, -0.0160414, 0.0)</t>
         </is>
@@ -5427,12 +5828,15 @@
           <t>"Excellent  food: delicious, authentic, and generous portion sizes."</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
         <is>
           <t>Chilango, 142, Fleet Street, Blackfriars, City of London, Greater London, England, EC4A 2BP, United Kingdom</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="I134" t="inlineStr">
         <is>
           <t>(51.5143377, -0.1069841, 0.0)</t>
         </is>
@@ -5465,12 +5869,15 @@
           <t>"Exceptional authentic  food, friendly service."</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="G135" t="n">
+        <v>2</v>
+      </c>
+      <c r="H135" t="inlineStr">
         <is>
           <t>15, Catherine Street, Punchbowl, Sydney, Canterbury-Bankstown Council, New South Wales, 2196, Australia</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
+      <c r="I135" t="inlineStr">
         <is>
           <t>(-33.9218732, 151.0532934, 0.0)</t>
         </is>
@@ -5503,12 +5910,15 @@
           <t>"Omg 😲 the kimchi, the chicken wings, the lovely service, the atmosphere!"</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="G136" t="n">
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr">
         <is>
           <t>149, Merton Road, Haven Park, Lucas County, Ohio, 43528, United States</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
+      <c r="I136" t="inlineStr">
         <is>
           <t>(41.6412246, -83.7117549, 0.0)</t>
         </is>
@@ -5541,12 +5951,15 @@
           <t>"The food tasted very authentic like in Korea with strong flavours."</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="G137" t="n">
+        <v>2</v>
+      </c>
+      <c r="H137" t="inlineStr">
         <is>
           <t>Wawa, 173, Tower Bridge Road, St John's Estate, Bermondsey, London Borough of Southwark, London, Greater London, England, SE1 2AW, United Kingdom</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="I137" t="inlineStr">
         <is>
           <t>(51.5015068, -0.0781922, 0.0)</t>
         </is>
@@ -5579,12 +5992,15 @@
           <t>"Amazing  food ,  value , friendly staff."</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
         <is>
           <t>Mukbap, 91, Worship Street, Shoreditch, London Borough of Hackney, London, Greater London, England, EC2A 2BG, United Kingdom</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
+      <c r="I138" t="inlineStr">
         <is>
           <t>(51.5221182, -0.0818851, 0.0)</t>
         </is>
@@ -5617,12 +6033,15 @@
           <t>"Delicious, authentic  food in a friendly neighbourhood atmosphere."</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
         <is>
           <t>Lewisham Way, New Cross, London Borough of Lewisham, London, Greater London, England, SE14 6PB, United Kingdom</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="I139" t="inlineStr">
         <is>
           <t>(51.47322, -0.032924, 0.0)</t>
         </is>
@@ -5655,12 +6074,15 @@
           <t>"Every dish we tried was bursting with authentic  flavors."</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="G140" t="n">
+        <v>2</v>
+      </c>
+      <c r="H140" t="inlineStr">
         <is>
           <t>Nelson's, 168, Borough High Street, Borough Market, The Borough, London Borough of Southwark, London, Greater London, England, SE1 1LB, United Kingdom</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="I140" t="inlineStr">
         <is>
           <t>(51.5019693, -0.0929568, 0.0)</t>
         </is>
@@ -5693,12 +6115,15 @@
           <t>"cozy and authentic  food, perfect with a glass of homemade rice wine!"</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
+      <c r="G141" t="n">
+        <v>2</v>
+      </c>
+      <c r="H141" t="inlineStr">
         <is>
           <t>Gamnamuzip, 27, Baron Street, Angel, Barnsbury, London Borough of Islington, London, Greater London, England, N1 9ET, United Kingdom</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="I141" t="inlineStr">
         <is>
           <t>(51.5331896, -0.109485, 0.0)</t>
         </is>
@@ -5731,12 +6156,15 @@
           <t>"Elevated honest  food with excellent service."</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
         <is>
           <t>Miga, 1, Mare Street, Hackney, London Borough of Hackney, London, Greater London, England, E8 4RP, United Kingdom</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
+      <c r="I142" t="inlineStr">
         <is>
           <t>(51.5345366, -0.0576607, 0.0)</t>
         </is>
@@ -5769,12 +6197,15 @@
           <t>"The kimchi is delicious, the  is beautifully decorated, and clean."</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
+      <c r="G143" t="n">
+        <v>2</v>
+      </c>
+      <c r="H143" t="inlineStr">
         <is>
           <t>147, Curtain Road, Shoreditch, London Borough of Hackney, London, Greater London, England, EC2A 3QE, United Kingdom</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="I143" t="inlineStr">
         <is>
           <t>(51.5266018, -0.0805636, 0.0)</t>
         </is>
@@ -5807,12 +6238,15 @@
           <t>"Five stars for the food, service and the ambience and  vibes!"</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
+      <c r="G144" t="n">
+        <v>2</v>
+      </c>
+      <c r="H144" t="inlineStr">
         <is>
           <t>Soju &amp; Co, 32, Great Windmill Street, Soho, London, Greater London, England, W1D 7LR, United Kingdom</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
+      <c r="I144" t="inlineStr">
         <is>
           <t>(51.5115246, -0.1346263, 0.0)</t>
         </is>
@@ -5845,8 +6279,11 @@
           <t>" authentic  in an iconic location, exellent service from Neda."</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr"/>
+      <c r="G145" t="n">
+        <v>2</v>
+      </c>
       <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5875,12 +6312,15 @@
           <t>"Delicious authentic  food, relaxed atmosphere and great service."</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr">
+      <c r="G146" t="n">
+        <v>2</v>
+      </c>
+      <c r="H146" t="inlineStr">
         <is>
           <t>Bethnal Green Road, Globe Town, Bethnal Green, London Borough of Tower Hamlets, London, Greater London, England, E2 0EG, United Kingdom</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
+      <c r="I146" t="inlineStr">
         <is>
           <t>(51.5271697, -0.0582669, 0.0)</t>
         </is>
@@ -5913,12 +6353,15 @@
           <t>"the  fresh, delicious, well portioned authentic  food!!"</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr">
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
         <is>
           <t>New Oxford Street, St Giles, Bloomsbury, London Borough of Camden, London, Greater London, England, WC1A 1HD, United Kingdom</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="I147" t="inlineStr">
         <is>
           <t>(51.5165617, -0.1291954, 0.0)</t>
         </is>
@@ -5951,12 +6394,15 @@
           <t>" quality food, nice and fast service,  vibe!"</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
+      <c r="G148" t="n">
+        <v>2</v>
+      </c>
+      <c r="H148" t="inlineStr">
         <is>
           <t>Daebak, 316-318, Kennington Lane, Kennington Cross, Vauxhall, London Borough of Lambeth, London, Greater London, England, SE11 5HY, United Kingdom</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
+      <c r="I148" t="inlineStr">
         <is>
           <t>(51.4865521, -0.1190103, 0.0)</t>
         </is>
@@ -5989,12 +6435,15 @@
           <t>"The flavour of their Bibimbap is incredible - the  I’ve ever had."</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr">
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="inlineStr">
         <is>
           <t>11, Greek Street, Soho, London, Greater London, England, W1D 4DN, United Kingdom</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
+      <c r="I149" t="inlineStr">
         <is>
           <t>(51.5144122, -0.1309285, 0.0)</t>
         </is>
@@ -6027,8 +6476,11 @@
           <t>"Delicious  fusion food - service was friendly and helpful!"</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr"/>
+      <c r="G150" t="n">
+        <v>2</v>
+      </c>
       <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Korea Restaurants Dataset Cleaned.xlsx
+++ b/Korea Restaurants Dataset Cleaned.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I150"/>
+  <dimension ref="A1:K150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,16 @@
           <t>Coordinates</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -512,6 +522,8 @@
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -548,10 +560,12 @@
           <t>6, Panton Street, Seven Dials, Bloomsbury, City of Westminster, Greater London, England, SW1Y 4DL, United Kingdom</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>(51.5093221, -0.1318048, 0.0)</t>
-        </is>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>51.5093221</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.1318048</v>
       </c>
     </row>
     <row r="4">
@@ -586,13 +600,15 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4, Commercial Street, Dock Square, Boston, Suffolk County, Massachusetts, 02109, United States</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>(42.3595734, -71.0537089, 0.0)</t>
-        </is>
+          <t>Bento Bab, 4, Commercial Street, Spitalfields, Whitechapel, London Borough of Tower Hamlets, London, Greater London, England, E1 6LP, United Kingdom</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>51.515718</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.07194150000000001</v>
       </c>
     </row>
     <row r="5">
@@ -627,13 +643,15 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Theobalds Road, Hatton Garden, Holborn, London Borough of Camden, London, Greater London, England, WC1X 8PF, United Kingdom</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>(51.5212491, -0.1143248, 0.0)</t>
-        </is>
+          <t>Theobalds Road, Hatton Garden, Holborn, London Borough of Camden, London, Greater London, England, WC1X 8NW, United Kingdom</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>51.5207891</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.1161519</v>
       </c>
     </row>
     <row r="6">
@@ -671,10 +689,12 @@
           <t>Bishopsgate, Runnymede, Surrey, England, TW20 0XP, United Kingdom</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>(51.4399048, -0.5888644, 0.0)</t>
-        </is>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>51.4399048</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.5888644</v>
       </c>
     </row>
     <row r="7">
@@ -712,10 +732,12 @@
           <t>Co &amp; Ko, 72, Berwick Street, Soho, London, Greater London, England, W1F 8TD, United Kingdom</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>(51.5147561, -0.1360285, 0.0)</t>
-        </is>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>51.5147561</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.1360285</v>
       </c>
     </row>
     <row r="8">
@@ -753,10 +775,12 @@
           <t>19, St. Alban's Place, Angel, Islington, London Borough of Islington, London, Greater London, England, N1 0NU, United Kingdom</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>(51.5366221, -0.1039496, 0.0)</t>
-        </is>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>51.5366221</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.1039496</v>
       </c>
     </row>
     <row r="9">
@@ -794,10 +818,12 @@
           <t>71, Holloway Road, Canonbury, Highbury, London Borough of Islington, London, Greater London, England, N7 8JZ, United Kingdom</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>(51.5473785, -0.1056801, 0.0)</t>
-        </is>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>51.5473785</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.1056801</v>
       </c>
     </row>
     <row r="10">
@@ -832,6 +858,8 @@
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -868,10 +896,12 @@
           <t>9, Golden Square, Bendigo, City of Greater Bendigo, Victoria, 3555, Australia</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>(-36.7744862, 144.2537406, 0.0)</t>
-        </is>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>-36.7744862</v>
+      </c>
+      <c r="K11" t="n">
+        <v>144.2537406</v>
       </c>
     </row>
     <row r="12">
@@ -909,10 +939,12 @@
           <t>OISO, 82, Caledonian Road, Pentonville, Islington, London Borough of Islington, London, Greater London, England, N1 9DN, United Kingdom</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>(51.5329126, -0.1192489, 0.0)</t>
-        </is>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>51.5329126</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.1192489</v>
       </c>
     </row>
     <row r="13">
@@ -947,6 +979,8 @@
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -983,10 +1017,12 @@
           <t>240, Westferry Road, Millwall, Isle of Dogs, London Borough of Tower Hamlets, London, Greater London, England, E14 3RQ, United Kingdom</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>(51.4894875, -0.0215473, 0.0)</t>
-        </is>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>51.4894875</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.0215473</v>
       </c>
     </row>
     <row r="15">
@@ -1024,10 +1060,12 @@
           <t>Assa, 23, Romilly Street, Soho, London, Greater London, England, W1D 5AQ, United Kingdom</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>(51.5128481, -0.1313167, 0.0)</t>
-        </is>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>51.5128481</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.1313167</v>
       </c>
     </row>
     <row r="16">
@@ -1062,6 +1100,8 @@
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1098,10 +1138,12 @@
           <t>Kuma, 305, Kennington Road, Kennington Cross, Kennington, London Borough of Lambeth, London, Greater London, England, SE11 4QE, United Kingdom</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>(51.4882661, -0.1110593, 0.0)</t>
-        </is>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>51.4882661</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.1110593</v>
       </c>
     </row>
     <row r="18">
@@ -1139,10 +1181,12 @@
           <t>Tea Talk, 55, Baylis Road, South Bank, Waterloo, London Borough of Lambeth, London, Greater London, England, SE1 7AZ, United Kingdom</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>(51.5003701, -0.1107859, 0.0)</t>
-        </is>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>51.5003701</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.1107859</v>
       </c>
     </row>
     <row r="19">
@@ -1180,10 +1224,12 @@
           <t>3, Stroud Green Road, Stroud Green, London Borough of Islington, London, Greater London, England, N4 2DQ, United Kingdom</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>(51.5647211, -0.1051991, 0.0)</t>
-        </is>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>51.5647211</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.1051991</v>
       </c>
     </row>
     <row r="20">
@@ -1218,13 +1264,15 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Seven Sisters Road, Seven Sisters, West Green, London Borough of Haringey, London, Greater London, England, N15 5NU, United Kingdom</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>(51.5821082, -0.074447, 0.0)</t>
-        </is>
+          <t>Seven Sisters Road, Brownswood Park, Stoke Newington, London Borough of Hackney, London, Greater London, England, N4 2EP, United Kingdom</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>51.5692591</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.0978802</v>
       </c>
     </row>
     <row r="21">
@@ -1259,6 +1307,8 @@
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1295,10 +1345,12 @@
           <t>Hancook, 1, Brixton Station Road, Brixton, London Borough of Lambeth, London, Greater London, England, SW9 8PA, United Kingdom</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>(51.4635204, -0.1142476, 0.0)</t>
-        </is>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>51.4635204</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-0.1142476</v>
       </c>
     </row>
     <row r="23">
@@ -1336,10 +1388,12 @@
           <t>Sushi Waka, 75, Parkway, Chalk Farm, London Borough of Camden, London, Greater London, England, NW1 7PP, United Kingdom</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>(51.5373371, -0.1452482, 0.0)</t>
-        </is>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>51.5373371</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.1452482</v>
       </c>
     </row>
     <row r="24">
@@ -1377,10 +1431,12 @@
           <t>SodAeng, 283, Putney Bridge Road, Putney, London Borough of Wandsworth, London, Greater London, England, SW15 2PT, United Kingdom</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>(51.4634331, -0.2117698, 0.0)</t>
-        </is>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>51.4634331</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-0.2117698</v>
       </c>
     </row>
     <row r="25">
@@ -1418,10 +1474,12 @@
           <t>Hongdae Pocha, 26, Romilly Street, Soho, City of Westminster, Greater London, England, W1D 5HP, United Kingdom</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>(51.5130057, -0.1308578, 0.0)</t>
-        </is>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>51.5130057</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-0.1308578</v>
       </c>
     </row>
     <row r="26">
@@ -1459,10 +1517,12 @@
           <t>353, Kennington Lane, Kennington Cross, Vauxhall, London Borough of Lambeth, London, Greater London, England, SE11 5QY, United Kingdom</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>(51.4861477, -0.119443, 0.0)</t>
-        </is>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>51.4861477</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-0.119443</v>
       </c>
     </row>
     <row r="27">
@@ -1497,13 +1557,15 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>King's Cross Road, Pentonville, Barnsbury, London Borough of Islington, London, Greater London, England, N1 9JR, United Kingdom</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>(51.5309473, -0.119922, 0.0)</t>
-        </is>
+          <t>King's Cross Road, Pentonville, Barnsbury, London Borough of Camden, London, Greater London, England, WC1X 9DN, United Kingdom</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>51.530923</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-0.1197601</v>
       </c>
     </row>
     <row r="28">
@@ -1541,10 +1603,12 @@
           <t>Rubedo, 35, Stoke Newington Church Street, Hackney, London Borough of Hackney, London, Greater London, England, N16 0NX, United Kingdom</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>(51.5620633, -0.0753916, 0.0)</t>
-        </is>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>51.5620633</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0.0753916</v>
       </c>
     </row>
     <row r="29">
@@ -1582,10 +1646,12 @@
           <t>53, Brewer Street, Soho, City of Westminster, Greater London, England, W1F 9TL, United Kingdom</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>(51.5115192, -0.1352837, 0.0)</t>
-        </is>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>51.5115192</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.1352837</v>
       </c>
     </row>
     <row r="30">
@@ -1623,10 +1689,12 @@
           <t>On The Bab, 305, Old Street, Shoreditch, London Borough of Hackney, London, Greater London, England, EC1V 9LA, United Kingdom</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>(51.5268331, -0.0816178, 0.0)</t>
-        </is>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>51.5268331</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-0.0816178</v>
       </c>
     </row>
     <row r="31">
@@ -1664,10 +1732,12 @@
           <t>Keonbae Barbeque &amp; Beer, 20, Royal Crest Avenue, Royal Wharf, Silvertown, London Borough of Newham, London, Greater London, England, E16 2PR, United Kingdom</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>(51.5007835, 0.0289582, 0.0)</t>
-        </is>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>51.5007835</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0289582</v>
       </c>
     </row>
     <row r="32">
@@ -1705,10 +1775,12 @@
           <t>Mukbang Pocha, 10, Golden Square, Soho, City of Westminster, Greater London, England, W1F 9HT, United Kingdom</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>(51.5116724, -0.1364903, 0.0)</t>
-        </is>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>51.5116724</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-0.1364903</v>
       </c>
     </row>
     <row r="33">
@@ -1743,13 +1815,15 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>24, The Green, New Cottages, Wennington, London, Greater London, England, RM13 9DX, United Kingdom</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>(51.5058521, 0.2195842, 0.0)</t>
-        </is>
+          <t>The Cricketers, 24, The Green, East Twickenham, St Margarets, London Borough of Richmond upon Thames, London, Greater London, England, TW9 1LX, United Kingdom</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>51.4605262</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-0.3061494</v>
       </c>
     </row>
     <row r="34">
@@ -1787,10 +1861,12 @@
           <t>Camberwell New Road, Elmington Estate, Camberwell, London Borough of Southwark, London, Greater London, England, SE5 7AF, United Kingdom</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>(51.4741503, -0.0933019, 0.0)</t>
-        </is>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>51.4740787</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.0933708</v>
       </c>
     </row>
     <row r="35">
@@ -1828,10 +1904,12 @@
           <t>The Petite Corée, 98, West End Lane, West Hampstead, London Borough of Camden, London, Greater London, England, NW6 2LH, United Kingdom</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>(51.546199, -0.1909758, 0.0)</t>
-        </is>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>51.546199</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.1909758</v>
       </c>
     </row>
     <row r="36">
@@ -1869,10 +1947,12 @@
           <t>Curry Leaves, 103, Falcon Road, Falcon Estate, Clapham Junction, London Borough of Wandsworth, London, Greater London, England, SW11 2PF, United Kingdom</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>(51.4668755, -0.1696867, 0.0)</t>
-        </is>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>51.4668755</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.1696867</v>
       </c>
     </row>
     <row r="37">
@@ -1910,10 +1990,12 @@
           <t>Pochawa Grill, 29, Wardour Street, Chinatown, London, Greater London, England, W1D 6PS, United Kingdom</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>(51.5112285, -0.132222, 0.0)</t>
-        </is>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>51.5112285</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.132222</v>
       </c>
     </row>
     <row r="38">
@@ -1948,13 +2030,15 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Jumak 39, 39, Panton Street, Seven Dials, Bloomsbury, London, Greater London, England, SW1Y 4EA, United Kingdom</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>(51.5095096, -0.1319607, 0.0)</t>
-        </is>
+          <t>39, Panton Street, Seven Dials, Bloomsbury, City of Westminster, Greater London, England, SW1Y 4DL, United Kingdom</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>51.5094831</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.1320274</v>
       </c>
     </row>
     <row r="39">
@@ -1992,10 +2076,12 @@
           <t>Earls Court Road, Memphis, Shelby County, West Tennessee, Tennessee, 38118, United States</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>(35.0470571, -89.9561062, 0.0)</t>
-        </is>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>35.0470571</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-89.95610619999999</v>
       </c>
     </row>
     <row r="40">
@@ -2033,10 +2119,12 @@
           <t>Seoul90, 90, Old Street, Saint Luke's, Finsbury, London Borough of Islington, London, Greater London, England, EC1V 9AZ, United Kingdom</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>(51.5245526, -0.0940604, 0.0)</t>
-        </is>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>51.5245526</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0940604</v>
       </c>
     </row>
     <row r="41">
@@ -2071,13 +2159,15 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Shaftesbury Avenue, St Giles, Bloomsbury, City of Westminster, Greater London, England, W1D 6NE, United Kingdom</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>(51.512075, -0.1317982, 0.0)</t>
-        </is>
+          <t>Shaftesbury Avenue, St Giles, Bloomsbury, City of Westminster, Greater London, England, W1D 5EH, United Kingdom</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>51.5124001</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.1309321</v>
       </c>
     </row>
     <row r="42">
@@ -2115,10 +2205,12 @@
           <t>4, Panton Street, Seven Dials, Bloomsbury, City of Westminster, Greater London, England, SW1Y 4DL, United Kingdom</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>(51.509298, -0.1319465, 0.0)</t>
-        </is>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>51.509298</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.1319465</v>
       </c>
     </row>
     <row r="43">
@@ -2156,10 +2248,12 @@
           <t>Центральная улица, район Левобережный, Дубна, городской округ Дубна, Московская область, Центральный федеральный округ, 141980, Россия</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>(56.7569673, 37.1343905, 0.0)</t>
-        </is>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>56.7567746</v>
+      </c>
+      <c r="K43" t="n">
+        <v>37.1347764</v>
       </c>
     </row>
     <row r="44">
@@ -2194,6 +2288,8 @@
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2230,10 +2326,12 @@
           <t>Kimchimama, 28, Upper Tachbrook Street, Tachbrook Estate, Victoria, London, Greater London, England, SW1V 1SW, United Kingdom</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>(51.4927808, -0.139382, 0.0)</t>
-        </is>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>51.4927808</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.139382</v>
       </c>
     </row>
     <row r="46">
@@ -2271,10 +2369,12 @@
           <t>Yming, 35-36, Greek Street, Soho, London, Greater London, England, W1D 5DL, United Kingdom</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>(51.5129997, -0.1303048, 0.0)</t>
-        </is>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>51.5129997</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.1303048</v>
       </c>
     </row>
     <row r="47">
@@ -2309,13 +2409,15 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Courtfield Road, The Boltons, South Kensington, Royal Borough of Kensington and Chelsea, London, Greater London, England, SW7 4QH, United Kingdom</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>(51.4940091, -0.1832145, 0.0)</t>
-        </is>
+          <t>Courtfield Road, The Boltons, South Kensington, Royal Borough of Kensington and Chelsea, London, Greater London, England, SW7 4DB, United Kingdom</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>51.4935211</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.1854955</v>
       </c>
     </row>
     <row r="48">
@@ -2353,10 +2455,12 @@
           <t>887, Finchley Road, West Cradock, Cradock, Portsmouth, Virginia, 23702, United States</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>(36.8012431, -76.32539, 0.0)</t>
-        </is>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>36.8012431</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-76.32539</v>
       </c>
     </row>
     <row r="49">
@@ -2391,13 +2495,15 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1, Kingly Street, Soho, City of Westminster, Greater London, England, W1B 5PT, United Kingdom</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>(51.5121852, -0.1384422, 0.0)</t>
-        </is>
+          <t>1, Kingly Street, Soho, City of Westminster, Greater London, England, W1B 5PS, United Kingdom</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>51.5121852</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.1384422</v>
       </c>
     </row>
     <row r="50">
@@ -2435,10 +2541,12 @@
           <t>London Naru, 21, Lovibond Lane, Greenwich Town Centre, Royal Borough of Greenwich, London, Greater London, England, SE10 9FY, United Kingdom</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>(51.4775165, -0.0155685, 0.0)</t>
-        </is>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>51.4775165</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.0155685</v>
       </c>
     </row>
     <row r="51">
@@ -2476,10 +2584,12 @@
           <t>Little Korea, 2-3, Lisle Street, Chinatown, London, Greater London, England, WC2H 7BG, United Kingdom</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>(51.5111938, -0.1316396, 0.0)</t>
-        </is>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>51.5111938</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.1316396</v>
       </c>
     </row>
     <row r="52">
@@ -2517,10 +2627,12 @@
           <t>Bullgogi Restaurant, 145, Notting Hill Gate, Notting Hill, Royal Borough of Kensington and Chelsea, London, Greater London, England, W8 7TH, United Kingdom</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>(51.5084902, -0.1996347, 0.0)</t>
-        </is>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>51.5084902</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.1996347</v>
       </c>
     </row>
     <row r="53">
@@ -2558,10 +2670,12 @@
           <t>88, Shaftesbury Avenue, St Giles, Bloomsbury, City of Westminster, Greater London, England, W1D 6NE, United Kingdom</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>(51.5120379, -0.1315356, 0.0)</t>
-        </is>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>51.5120379</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-0.1315356</v>
       </c>
     </row>
     <row r="54">
@@ -2596,6 +2710,8 @@
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2632,10 +2748,12 @@
           <t>Riccarton Inn, 52, Old Street, Riccarton, Kilmarnock, East Ayrshire, Alba / Scotland, KA1 4DX, United Kingdom</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>(55.5952078, -4.4969592, 0.0)</t>
-        </is>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>55.5952078</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-4.4969592</v>
       </c>
     </row>
     <row r="56">
@@ -2673,10 +2791,12 @@
           <t>Kangnam Pocha, 176, Drury Lane, Seven Dials, Bloomsbury, London Borough of Camden, London, Greater London, England, WC2B 5QF, United Kingdom</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>(51.5155894, -0.1233544, 0.0)</t>
-        </is>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>51.5155894</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.1233544</v>
       </c>
     </row>
     <row r="57">
@@ -2714,10 +2834,12 @@
           <t>14, Great Russell Street, St Giles, Bloomsbury, London Borough of Camden, London, Greater London, England, WC1B 3LA, United Kingdom</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>(51.5172521, -0.1295581, 0.0)</t>
-        </is>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>51.5172521</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.1295581</v>
       </c>
     </row>
     <row r="58">
@@ -2755,10 +2877,12 @@
           <t>Lime Orange, 312, Vauxhall Bridge Road, Victoria, London, Greater London, England, SW1V 1AA, United Kingdom</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>(51.4956537, -0.1418962, 0.0)</t>
-        </is>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>51.4956537</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-0.1418962</v>
       </c>
     </row>
     <row r="59">
@@ -2796,10 +2920,12 @@
           <t>60, Battersea Rise, York Road Estate, Clapham Junction, London Borough of Wandsworth, London, Greater London, England, SW11 1HH, United Kingdom</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>(51.4609881, -0.1658513, 0.0)</t>
-        </is>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>51.4609881</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.1658513</v>
       </c>
     </row>
     <row r="60">
@@ -2837,10 +2963,12 @@
           <t>New Malden, Royal Borough of Kingston upon Thames, London, Greater London, England, KT3 3HN, United Kingdom</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>(51.4053347, -0.2634066, 0.0)</t>
-        </is>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>51.4053347</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.2634066</v>
       </c>
     </row>
     <row r="61">
@@ -2878,10 +3006,12 @@
           <t>13, Artillery Passage, Spitalfields, Whitechapel, London Borough of Tower Hamlets, London, Greater London, England, E1 7LJ, United Kingdom</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>(51.5182087, -0.0774785, 0.0)</t>
-        </is>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>51.5182087</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-0.07747850000000001</v>
       </c>
     </row>
     <row r="62">
@@ -2919,10 +3049,12 @@
           <t>25, Harbour Way, Foord, Folkestone, Folkestone and Hythe, Kent, England, CT20 1NE, United Kingdom</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>(51.0815445, 1.1848382, 0.0)</t>
-        </is>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>51.0815445</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1.1848382</v>
       </c>
     </row>
     <row r="63">
@@ -2960,10 +3092,12 @@
           <t>Korean BBQ and Vegan Restaurant, 107, Whitecross Street, Saint Luke's, Finsbury, London Borough of Islington, London, Greater London, England, EC1Y 8JD, United Kingdom</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>(51.5221871, -0.0928739, 0.0)</t>
-        </is>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>51.5221871</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.0928739</v>
       </c>
     </row>
     <row r="64">
@@ -3001,10 +3135,12 @@
           <t>9, Woolwich Road, Clacton-on-Sea, Tendring, Essex, England, CO16 8UW, United Kingdom</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>(51.8010263, 1.1349051, 0.0)</t>
-        </is>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>51.8010263</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1.1349051</v>
       </c>
     </row>
     <row r="65">
@@ -3042,10 +3178,12 @@
           <t>S &amp; S Cycles, 29, Chapel Market, Angel, Barnsbury, London Borough of Islington, London, Greater London, England, N1 9EN, United Kingdom</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>(51.5336419, -0.1083763, 0.0)</t>
-        </is>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>51.5336419</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.1083763</v>
       </c>
     </row>
     <row r="66">
@@ -3083,10 +3221,12 @@
           <t>Bunsik, 62, Charing Cross Road, Seven Dials, Bloomsbury, City of Westminster, Greater London, England, WC2H 0HR, United Kingdom</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>(51.5123222, -0.1283906, 0.0)</t>
-        </is>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>51.5123222</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.1283906</v>
       </c>
     </row>
     <row r="67">
@@ -3124,10 +3264,12 @@
           <t>Watford Way, Hendon Central, London Borough of Barnet, London, Greater London, England, NW4 3HA, United Kingdom</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>(51.5855206, -0.2305324, 0.0)</t>
-        </is>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>51.5855206</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.2305324</v>
       </c>
     </row>
     <row r="68">
@@ -3165,10 +3307,12 @@
           <t>451, Edgware Road, St. John's Wood, London, Greater London, England, W2 1TH, United Kingdom</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>(51.524345, -0.1768632, 0.0)</t>
-        </is>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>51.524345</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-0.1768632</v>
       </c>
     </row>
     <row r="69">
@@ -3206,10 +3350,12 @@
           <t>Fairly Square, 51, Red Lion Street, Gray's Inn, Holborn, London Borough of Camden, London, Greater London, England, WC1R 4PF, United Kingdom</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>(51.5197872, -0.11744, 0.0)</t>
-        </is>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>51.5197872</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-0.11744</v>
       </c>
     </row>
     <row r="70">
@@ -3247,10 +3393,12 @@
           <t>24, Goldhawk Road, Shepherd's Bush, London Borough of Hammersmith and Fulham, London, Greater London, England, W12 8DH, United Kingdom</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>(51.5028509, -0.2251786, 0.0)</t>
-        </is>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>51.5028509</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-0.2251786</v>
       </c>
     </row>
     <row r="71">
@@ -3288,10 +3436,12 @@
           <t>Dalston Lane, Lower Clapton, Shacklewell, London Borough of Hackney, London, Greater London, England, E8 1NG, United Kingdom</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>(51.5483083, -0.0654011, 0.0)</t>
-        </is>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>51.5483083</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-0.0654011</v>
       </c>
     </row>
     <row r="72">
@@ -3329,10 +3479,12 @@
           <t>Tohbang, 164, Clerkenwell Road, Hatton Garden, Holborn, London Borough of Camden, London, Greater London, England, EC1R 5DU, United Kingdom</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>(51.5221016, -0.1109801, 0.0)</t>
-        </is>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>51.5221016</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-0.1109801</v>
       </c>
     </row>
     <row r="73">
@@ -3370,10 +3522,12 @@
           <t>Bari Bari, 24, White Church Lane, East Smithfield, Whitechapel, London Borough of Tower Hamlets, London, Greater London, England, E1 7QR, United Kingdom</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>(51.515279, -0.0687031, 0.0)</t>
-        </is>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>51.515279</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-0.0687031</v>
       </c>
     </row>
     <row r="74">
@@ -3411,10 +3565,12 @@
           <t>196, Lavender Hill, Falcon Estate, Clapham Junction, London Borough of Wandsworth, London, Greater London, England, SW11 5TQ, United Kingdom</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>(51.4643669, -0.1636423, 0.0)</t>
-        </is>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>51.4643669</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-0.1636423</v>
       </c>
     </row>
     <row r="75">
@@ -3452,10 +3608,12 @@
           <t>15, Craven Terrace, Paddington, London, Greater London, England, W2 3EL, United Kingdom</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>(51.5127155, -0.1789616, 0.0)</t>
-        </is>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>51.5127155</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-0.1789616</v>
       </c>
     </row>
     <row r="76">
@@ -3493,10 +3651,12 @@
           <t>SSÄM, 241, Holloway Road, Lower Holloway, Holloway, London Borough of Islington, London, Greater London, England, N7 8HG, United Kingdom</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>(51.551584, -0.1112353, 0.0)</t>
-        </is>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>51.551584</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-0.1112353</v>
       </c>
     </row>
     <row r="77">
@@ -3535,10 +3695,12 @@
           <t>116, New Kent Road, Browning Estate, Walworth, London Borough of Southwark, London, Greater London, England, SE1 6TU, United Kingdom</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>(51.4939459, -0.093952, 0.0)</t>
-        </is>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>51.4939459</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-0.09395199999999999</v>
       </c>
     </row>
     <row r="78">
@@ -3576,10 +3738,12 @@
           <t>30, Lower Marsh, South Bank, Waterloo, London Borough of Lambeth, London, Greater London, England, SE1 7RG, United Kingdom</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>(51.5009732, -0.1121265, 0.0)</t>
-        </is>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>51.5009732</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-0.1121265</v>
       </c>
     </row>
     <row r="79">
@@ -3617,10 +3781,12 @@
           <t>Zanchi, 113-115, Praed Street, Paddington, London, Greater London, England, W2 1RL, United Kingdom</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>(51.5168202, -0.1730971, 0.0)</t>
-        </is>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>51.5168202</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-0.1730971</v>
       </c>
     </row>
     <row r="80">
@@ -3659,10 +3825,12 @@
           <t>New World, 1, Gerrard Place, Chinatown, London, Greater London, England, W1D 5PA, United Kingdom</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>(51.5123678, -0.1303581, 0.0)</t>
-        </is>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>51.5123678</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-0.1303581</v>
       </c>
     </row>
     <row r="81">
@@ -3700,10 +3868,12 @@
           <t>Bi Won, 24, Coptic Street, St Giles, Bloomsbury, London Borough of Camden, London, Greater London, England, WC1A 1NT, United Kingdom</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>(51.5172252, -0.1258364, 0.0)</t>
-        </is>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>51.5172252</v>
+      </c>
+      <c r="K81" t="n">
+        <v>-0.1258364</v>
       </c>
     </row>
     <row r="82">
@@ -3741,10 +3911,12 @@
           <t>New Malden, Royal Borough of Kingston upon Thames, London, Greater London, England, KT3 3HN, United Kingdom</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>(51.4053347, -0.2634066, 0.0)</t>
-        </is>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>51.4053347</v>
+      </c>
+      <c r="K82" t="n">
+        <v>-0.2634066</v>
       </c>
     </row>
     <row r="83">
@@ -3782,10 +3954,12 @@
           <t>345, North End Road, Town of German, Chenango County, New York, 13040, United States</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>(42.529996, -75.8357087, 0.0)</t>
-        </is>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>42.529996</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-75.8357087</v>
       </c>
     </row>
     <row r="84">
@@ -3823,10 +3997,12 @@
           <t>31-32, Poland Street, Soho, Camden Town, City of Westminster, Greater London, England, W1F 8PZ, United Kingdom</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>(51.515529, -0.1374287, 0.0)</t>
-        </is>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>51.515529</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-0.1374287</v>
       </c>
     </row>
     <row r="85">
@@ -3864,10 +4040,12 @@
           <t>34,34A,34B,34C, Durham Road, Cottenham Park, Raynes Park, London Borough of Merton, London, Greater London, England, SW20 0TL, United Kingdom</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>(51.4105567, -0.2325984, 0.0)</t>
-        </is>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>51.4105567</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-0.2325984</v>
       </c>
     </row>
     <row r="86">
@@ -3905,10 +4083,12 @@
           <t>Kkini, 131, Fortess Road, Tufnell Park, London Borough of Camden, London, Greater London, England, NW5 2HR, United Kingdom</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>(51.5559777, -0.1392977, 0.0)</t>
-        </is>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>51.5559777</v>
+      </c>
+      <c r="K86" t="n">
+        <v>-0.1392977</v>
       </c>
     </row>
     <row r="87">
@@ -3946,10 +4126,12 @@
           <t>Horseferry Road, Westminster, Millbank, London, Greater London, England, SW1P 2AW, United Kingdom</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>(51.4947971, -0.1259519, 0.0)</t>
-        </is>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>51.4947971</v>
+      </c>
+      <c r="K87" t="n">
+        <v>-0.1259519</v>
       </c>
     </row>
     <row r="88">
@@ -3987,10 +4169,12 @@
           <t>Camden Lock Place, Primrose Hill, Chalk Farm, London Borough of Camden, London, Greater London, England, NW1 8AF, United Kingdom</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>(51.5415134, -0.1463158, 0.0)</t>
-        </is>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>51.5415134</v>
+      </c>
+      <c r="K88" t="n">
+        <v>-0.1463158</v>
       </c>
     </row>
     <row r="89">
@@ -4028,10 +4212,12 @@
           <t>Spices Balti House, 10, Chapel Market, Angel, Barnsbury, London Borough of Islington, London, Greater London, England, N1 9EZ, United Kingdom</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>(51.5335221, -0.1101832, 0.0)</t>
-        </is>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>51.5335221</v>
+      </c>
+      <c r="K89" t="n">
+        <v>-0.1101832</v>
       </c>
     </row>
     <row r="90">
@@ -4066,6 +4252,8 @@
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4102,10 +4290,12 @@
           <t>New Malden, Royal Borough of Kingston upon Thames, London, Greater London, England, KT3 3HN, United Kingdom</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>(51.4053347, -0.2634066, 0.0)</t>
-        </is>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>51.4053347</v>
+      </c>
+      <c r="K91" t="n">
+        <v>-0.2634066</v>
       </c>
     </row>
     <row r="92">
@@ -4143,10 +4333,12 @@
           <t>Chrysanthemum, 123, Lillie Road, Walham Green, West Kensington, London Borough of Hammersmith and Fulham, London, Greater London, England, SW6 7SX, United Kingdom</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>(51.4847389, -0.2035024, 0.0)</t>
-        </is>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>51.4847389</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-0.2035024</v>
       </c>
     </row>
     <row r="93">
@@ -4184,10 +4376,12 @@
           <t>Bento Bab, 13, Bowling Green Lane, Clerkenwell Green, Clerkenwell, London Borough of Islington, London, Greater London, England, EC1R 0BU, United Kingdom</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>(51.5242883, -0.1077709, 0.0)</t>
-        </is>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>51.5242883</v>
+      </c>
+      <c r="K93" t="n">
+        <v>-0.1077709</v>
       </c>
     </row>
     <row r="94">
@@ -4225,10 +4419,12 @@
           <t>New Malden, Royal Borough of Kingston upon Thames, London, Greater London, England, KT3 3HN, United Kingdom</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>(51.4053347, -0.2634066, 0.0)</t>
-        </is>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>51.4053347</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-0.2634066</v>
       </c>
     </row>
     <row r="95">
@@ -4266,10 +4462,12 @@
           <t>7, The Boulevard, Cheltenham, Sydney, The Council of the Shire of Hornsby, New South Wales, 2119, Australia</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>(-33.7581008, 151.0779703, 0.0)</t>
-        </is>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>-33.7581008</v>
+      </c>
+      <c r="K95" t="n">
+        <v>151.0779703</v>
       </c>
     </row>
     <row r="96">
@@ -4307,10 +4505,12 @@
           <t>47, Margaret Street, East Marylebone, Fitzrovia, Camden Town, City of Westminster, Greater London, England, W1W 8SB, United Kingdom</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>(51.516376, -0.141855, 0.0)</t>
-        </is>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>51.516376</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-0.141855</v>
       </c>
     </row>
     <row r="97">
@@ -4348,10 +4548,12 @@
           <t>Catopia, 8, Great Russell Street, St Giles, Bloomsbury, London Borough of Camden, London, Greater London, England, W1T 7LA, United Kingdom</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>(51.5171574, -0.129976, 0.0)</t>
-        </is>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>51.5171574</v>
+      </c>
+      <c r="K97" t="n">
+        <v>-0.129976</v>
       </c>
     </row>
     <row r="98">
@@ -4386,6 +4588,8 @@
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4422,10 +4626,12 @@
           <t>Leather Garments, 230, Camden High Street, Chalk Farm, London Borough of Camden, London, Greater London, England, NW1 8QS, United Kingdom</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>(51.5409868, -0.1441947, 0.0)</t>
-        </is>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>51.5409868</v>
+      </c>
+      <c r="K99" t="n">
+        <v>-0.1441947</v>
       </c>
     </row>
     <row r="100">
@@ -4463,10 +4669,12 @@
           <t>On The Bab, 9, Ludgate Broadway, Blackfriars, City of London, Greater London, England, EC4V 6DU, United Kingdom</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>(51.5134755, -0.1025608, 0.0)</t>
-        </is>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>51.5134755</v>
+      </c>
+      <c r="K100" t="n">
+        <v>-0.1025608</v>
       </c>
     </row>
     <row r="101">
@@ -4505,10 +4713,12 @@
           <t>Yanji BBQ, 151-153, Bethnal Green Road, Spitalfields, Whitechapel, London Borough of Tower Hamlets, London, Greater London, England, E2 7DG, United Kingdom</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>(51.525465, -0.0706488, 0.0)</t>
-        </is>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>51.525465</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-0.0706488</v>
       </c>
     </row>
     <row r="102">
@@ -4542,10 +4752,12 @@
           <t>Namibia</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>(-23.2335499, 17.3231107, 0.0)</t>
-        </is>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>-23.2335499</v>
+      </c>
+      <c r="K102" t="n">
+        <v>17.3231107</v>
       </c>
     </row>
     <row r="103">
@@ -4583,10 +4795,12 @@
           <t>New Malden, Royal Borough of Kingston upon Thames, London, Greater London, England, KT3 3HN, United Kingdom</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>(51.4053347, -0.2634066, 0.0)</t>
-        </is>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>51.4053347</v>
+      </c>
+      <c r="K103" t="n">
+        <v>-0.2634066</v>
       </c>
     </row>
     <row r="104">
@@ -4624,10 +4838,12 @@
           <t>New Malden, Royal Borough of Kingston upon Thames, London, Greater London, England, KT3 3HN, United Kingdom</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>(51.4053347, -0.2634066, 0.0)</t>
-        </is>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>51.4053347</v>
+      </c>
+      <c r="K104" t="n">
+        <v>-0.2634066</v>
       </c>
     </row>
     <row r="105">
@@ -4665,10 +4881,12 @@
           <t>16, Hanway Street, St Giles, Bloomsbury, Camden Town, London, Greater London, England, W1T 1UE, United Kingdom</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>(51.5169401, -0.1317826, 0.0)</t>
-        </is>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>51.5169401</v>
+      </c>
+      <c r="K105" t="n">
+        <v>-0.1317826</v>
       </c>
     </row>
     <row r="106">
@@ -4703,6 +4921,8 @@
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4740,10 +4960,12 @@
           <t>Bunsik, 19, Villiers Street, Covent Garden, Waterloo, London, Greater London, England, WC2N 6ND, United Kingdom</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>(51.5083121, -0.1239667, 0.0)</t>
-        </is>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>51.5083121</v>
+      </c>
+      <c r="K107" t="n">
+        <v>-0.1239667</v>
       </c>
     </row>
     <row r="108">
@@ -4781,10 +5003,12 @@
           <t>Hozi, 25-27, Theobalds Road, Gray's Inn, Holborn, London Borough of Camden, London, Greater London, England, WC1X 8SP, United Kingdom</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>(51.5201852, -0.1178185, 0.0)</t>
-        </is>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>51.5201852</v>
+      </c>
+      <c r="K108" t="n">
+        <v>-0.1178185</v>
       </c>
     </row>
     <row r="109">
@@ -4822,10 +5046,12 @@
           <t>Spicy Grill, 122, Golders Green Road, Golders Green, London Borough of Barnet, London, Greater London, England, NW11 8HP, United Kingdom</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>(51.5739245, -0.2007587, 0.0)</t>
-        </is>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>51.5739245</v>
+      </c>
+      <c r="K109" t="n">
+        <v>-0.2007587</v>
       </c>
     </row>
     <row r="110">
@@ -4863,10 +5089,12 @@
           <t>Your Mum's Kitchen, 17, Goldhurst Terrace, Swiss Cottage, South Hampstead, London Borough of Camden, London, Greater London, England, NW6 3HX, United Kingdom</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>(51.5457053, -0.1795179, 0.0)</t>
-        </is>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>51.5457053</v>
+      </c>
+      <c r="K110" t="n">
+        <v>-0.1795179</v>
       </c>
     </row>
     <row r="111">
@@ -4904,10 +5132,12 @@
           <t>Bibimbab Cafe, 37, Museum Street, St Giles, Bloomsbury, London Borough of Camden, London, Greater London, England, WC1A 1LP, United Kingdom</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>(51.5181077, -0.1257753, 0.0)</t>
-        </is>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>51.5181077</v>
+      </c>
+      <c r="K111" t="n">
+        <v>-0.1257753</v>
       </c>
     </row>
     <row r="112">
@@ -4945,10 +5175,12 @@
           <t>9, Golden Square, Bendigo, City of Greater Bendigo, Victoria, 3555, Australia</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>(-36.7744862, 144.2537406, 0.0)</t>
-        </is>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>-36.7744862</v>
+      </c>
+      <c r="K112" t="n">
+        <v>144.2537406</v>
       </c>
     </row>
     <row r="113">
@@ -4986,10 +5218,12 @@
           <t>21-22, Great Castle Street, East Marylebone, Fitzrovia, Camden Town, City of Westminster, Greater London, England, W1G 0JN, United Kingdom</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>(51.515929, -0.1426987, 0.0)</t>
-        </is>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>51.515929</v>
+      </c>
+      <c r="K113" t="n">
+        <v>-0.1426987</v>
       </c>
     </row>
     <row r="114">
@@ -5027,10 +5261,12 @@
           <t>22, Hanover Square, Stranraer, Dumfries and Galloway, Alba / Scotland, DG9 7HT, United Kingdom</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>(54.9017703, -5.0245215, 0.0)</t>
-        </is>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>54.9017703</v>
+      </c>
+      <c r="K114" t="n">
+        <v>-5.0245215</v>
       </c>
     </row>
     <row r="115">
@@ -5068,10 +5304,12 @@
           <t>Go Po Cha, 57, Baylis Road, South Bank, Waterloo, London Borough of Lambeth, London, Greater London, England, SE1 7AZ, United Kingdom</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>(51.5002886, -0.1108388, 0.0)</t>
-        </is>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>51.5002886</v>
+      </c>
+      <c r="K115" t="n">
+        <v>-0.1108388</v>
       </c>
     </row>
     <row r="116">
@@ -5109,10 +5347,12 @@
           <t>Sushi &amp; More, 9, Northways Parade, Belsize Park, London Borough of Camden, London, Greater London, England, NW3 5EN, United Kingdom</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>(51.544763, -0.1756894, 0.0)</t>
-        </is>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>51.544763</v>
+      </c>
+      <c r="K116" t="n">
+        <v>-0.1756894</v>
       </c>
     </row>
     <row r="117">
@@ -5150,10 +5390,12 @@
           <t>Wingmans, 29-31, Old Compton Street, Soho, London, Greater London, England, W1D 5JS, United Kingdom</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>(51.5129947, -0.1315053, 0.0)</t>
-        </is>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>51.5129947</v>
+      </c>
+      <c r="K117" t="n">
+        <v>-0.1315053</v>
       </c>
     </row>
     <row r="118">
@@ -5191,10 +5433,12 @@
           <t>Broadwick Street, Soho, City of Westminster, Greater London, England, W1F 9QL, United Kingdom</t>
         </is>
       </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>(51.5136207, -0.1356763, 0.0)</t>
-        </is>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>51.5136207</v>
+      </c>
+      <c r="K118" t="n">
+        <v>-0.1356763</v>
       </c>
     </row>
     <row r="119">
@@ -5229,6 +5473,8 @@
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5265,10 +5511,12 @@
           <t>Hampstead Road, Fitzrovia, London Borough of Camden, London, Greater London, England, NW1 3EL, United Kingdom</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>(51.527678, -0.1386389, 0.0)</t>
-        </is>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>51.527678</v>
+      </c>
+      <c r="K120" t="n">
+        <v>-0.1386389</v>
       </c>
     </row>
     <row r="121">
@@ -5306,10 +5554,12 @@
           <t>22, Hanover Square, Stranraer, Dumfries and Galloway, Alba / Scotland, DG9 7HT, United Kingdom</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>(54.9017703, -5.0245215, 0.0)</t>
-        </is>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>54.9017703</v>
+      </c>
+      <c r="K121" t="n">
+        <v>-5.0245215</v>
       </c>
     </row>
     <row r="122">
@@ -5347,10 +5597,12 @@
           <t>Bancone, 39, William IV Street, Covent Garden, Bloomsbury, London, Greater London, England, WC2N 4DD, United Kingdom</t>
         </is>
       </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>(51.509547, -0.1264122, 0.0)</t>
-        </is>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>51.509547</v>
+      </c>
+      <c r="K122" t="n">
+        <v>-0.1264122</v>
       </c>
     </row>
     <row r="123">
@@ -5388,10 +5640,12 @@
           <t>Koba, 11, Rathbone Street, St Giles, Fitzrovia, London Borough of Camden, London, Greater London, England, W1T 1NA, United Kingdom</t>
         </is>
       </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>(51.5178343, -0.1348568, 0.0)</t>
-        </is>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>51.5178343</v>
+      </c>
+      <c r="K123" t="n">
+        <v>-0.1348568</v>
       </c>
     </row>
     <row r="124">
@@ -5429,10 +5683,12 @@
           <t>9, East Russell Street, Italian Village, Columbus, Franklin County, Ohio, 43215, United States</t>
         </is>
       </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>(39.9756747, -83.0029667, 0.0)</t>
-        </is>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>39.9756041</v>
+      </c>
+      <c r="K124" t="n">
+        <v>-83.0021663</v>
       </c>
     </row>
     <row r="125">
@@ -5470,10 +5726,12 @@
           <t>Fish Plaice, 32, Museum Street, St Giles, Bloomsbury, London Borough of Camden, London, Greater London, England, WC1A 1LQ, United Kingdom</t>
         </is>
       </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>(51.5179567, -0.1260685, 0.0)</t>
-        </is>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>51.5179567</v>
+      </c>
+      <c r="K125" t="n">
+        <v>-0.1260685</v>
       </c>
     </row>
     <row r="126">
@@ -5511,10 +5769,12 @@
           <t>33, Haymarket, Seven Dials, Bloomsbury, City of Westminster, Greater London, England, SW1Y 4HA, United Kingdom</t>
         </is>
       </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>(51.5099098, -0.1328048, 0.0)</t>
-        </is>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>51.5099098</v>
+      </c>
+      <c r="K126" t="n">
+        <v>-0.1328048</v>
       </c>
     </row>
     <row r="127">
@@ -5552,10 +5812,12 @@
           <t>WingWing Krispy Chicken, 30, Woburn Place, St Pancras, London Borough of Camden, London, Greater London, England, WC1H 0JR, United Kingdom</t>
         </is>
       </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>(51.5244813, -0.127931, 0.0)</t>
-        </is>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>51.5244813</v>
+      </c>
+      <c r="K127" t="n">
+        <v>-0.127931</v>
       </c>
     </row>
     <row r="128">
@@ -5595,10 +5857,12 @@
           <t>Exit, 174, Brick Lane, Spitalfields, Whitechapel, London Borough of Tower Hamlets, London, Greater London, England, E1 6RU, United Kingdom</t>
         </is>
       </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>(51.5225097, -0.0714638, 0.0)</t>
-        </is>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>51.5225097</v>
+      </c>
+      <c r="K128" t="n">
+        <v>-0.07146379999999999</v>
       </c>
     </row>
     <row r="129">
@@ -5636,10 +5900,12 @@
           <t>The Mango Tree, 46, Grosvenor Place, Belgravia, London, Greater London, England, SW1X 7EQ, United Kingdom</t>
         </is>
       </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>(51.498271, -0.1472742, 0.0)</t>
-        </is>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>51.498271</v>
+      </c>
+      <c r="K129" t="n">
+        <v>-0.1472742</v>
       </c>
     </row>
     <row r="130">
@@ -5677,10 +5943,12 @@
           <t>Bibimbap, 39, Leadenhall Market, City of London, Greater London, England, EC3V 1LR, United Kingdom</t>
         </is>
       </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>(51.5124419, -0.083746, 0.0)</t>
-        </is>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>51.5124419</v>
+      </c>
+      <c r="K130" t="n">
+        <v>-0.083746</v>
       </c>
     </row>
     <row r="131">
@@ -5718,6 +5986,8 @@
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5754,10 +6024,12 @@
           <t>15, Frith Street, Soho, London, Greater London, England, W1D 4RF, United Kingdom</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>(51.5138092, -0.1313804, 0.0)</t>
-        </is>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>51.5138092</v>
+      </c>
+      <c r="K132" t="n">
+        <v>-0.1313804</v>
       </c>
     </row>
     <row r="133">
@@ -5795,10 +6067,12 @@
           <t>Royal Docks, 10, Harbour Exchange Square, Isle of Dogs, London Borough of Tower Hamlets, London, Greater London, England, E14 9GE, United Kingdom</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>(51.498282, -0.0160414, 0.0)</t>
-        </is>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>51.498282</v>
+      </c>
+      <c r="K133" t="n">
+        <v>-0.0160414</v>
       </c>
     </row>
     <row r="134">
@@ -5836,10 +6110,12 @@
           <t>Chilango, 142, Fleet Street, Blackfriars, City of London, Greater London, England, EC4A 2BP, United Kingdom</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>(51.5143377, -0.1069841, 0.0)</t>
-        </is>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>51.5143377</v>
+      </c>
+      <c r="K134" t="n">
+        <v>-0.1069841</v>
       </c>
     </row>
     <row r="135">
@@ -5877,10 +6153,12 @@
           <t>15, Catherine Street, Punchbowl, Sydney, Canterbury-Bankstown Council, New South Wales, 2196, Australia</t>
         </is>
       </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>(-33.9218732, 151.0532934, 0.0)</t>
-        </is>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>-33.9218732</v>
+      </c>
+      <c r="K135" t="n">
+        <v>151.0532934</v>
       </c>
     </row>
     <row r="136">
@@ -5918,10 +6196,12 @@
           <t>149, Merton Road, Haven Park, Lucas County, Ohio, 43528, United States</t>
         </is>
       </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>(41.6412246, -83.7117549, 0.0)</t>
-        </is>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>41.6412246</v>
+      </c>
+      <c r="K136" t="n">
+        <v>-83.7117549</v>
       </c>
     </row>
     <row r="137">
@@ -5959,10 +6239,12 @@
           <t>Wawa, 173, Tower Bridge Road, St John's Estate, Bermondsey, London Borough of Southwark, London, Greater London, England, SE1 2AW, United Kingdom</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>(51.5015068, -0.0781922, 0.0)</t>
-        </is>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>51.5015068</v>
+      </c>
+      <c r="K137" t="n">
+        <v>-0.0781922</v>
       </c>
     </row>
     <row r="138">
@@ -6000,10 +6282,12 @@
           <t>Mukbap, 91, Worship Street, Shoreditch, London Borough of Hackney, London, Greater London, England, EC2A 2BG, United Kingdom</t>
         </is>
       </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>(51.5221182, -0.0818851, 0.0)</t>
-        </is>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>51.5221182</v>
+      </c>
+      <c r="K138" t="n">
+        <v>-0.0818851</v>
       </c>
     </row>
     <row r="139">
@@ -6041,10 +6325,12 @@
           <t>Lewisham Way, New Cross, London Borough of Lewisham, London, Greater London, England, SE14 6PB, United Kingdom</t>
         </is>
       </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>(51.47322, -0.032924, 0.0)</t>
-        </is>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>51.47322</v>
+      </c>
+      <c r="K139" t="n">
+        <v>-0.032924</v>
       </c>
     </row>
     <row r="140">
@@ -6082,10 +6368,12 @@
           <t>Nelson's, 168, Borough High Street, Borough Market, The Borough, London Borough of Southwark, London, Greater London, England, SE1 1LB, United Kingdom</t>
         </is>
       </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>(51.5019693, -0.0929568, 0.0)</t>
-        </is>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>51.5019693</v>
+      </c>
+      <c r="K140" t="n">
+        <v>-0.09295680000000001</v>
       </c>
     </row>
     <row r="141">
@@ -6123,10 +6411,12 @@
           <t>Gamnamuzip, 27, Baron Street, Angel, Barnsbury, London Borough of Islington, London, Greater London, England, N1 9ET, United Kingdom</t>
         </is>
       </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>(51.5331896, -0.109485, 0.0)</t>
-        </is>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>51.5331896</v>
+      </c>
+      <c r="K141" t="n">
+        <v>-0.109485</v>
       </c>
     </row>
     <row r="142">
@@ -6164,10 +6454,12 @@
           <t>Miga, 1, Mare Street, Hackney, London Borough of Hackney, London, Greater London, England, E8 4RP, United Kingdom</t>
         </is>
       </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>(51.5345366, -0.0576607, 0.0)</t>
-        </is>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>51.5345366</v>
+      </c>
+      <c r="K142" t="n">
+        <v>-0.0576607</v>
       </c>
     </row>
     <row r="143">
@@ -6205,10 +6497,12 @@
           <t>147, Curtain Road, Shoreditch, London Borough of Hackney, London, Greater London, England, EC2A 3QE, United Kingdom</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>(51.5266018, -0.0805636, 0.0)</t>
-        </is>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>51.5266018</v>
+      </c>
+      <c r="K143" t="n">
+        <v>-0.0805636</v>
       </c>
     </row>
     <row r="144">
@@ -6246,10 +6540,12 @@
           <t>Soju &amp; Co, 32, Great Windmill Street, Soho, London, Greater London, England, W1D 7LR, United Kingdom</t>
         </is>
       </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>(51.5115246, -0.1346263, 0.0)</t>
-        </is>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>51.5115246</v>
+      </c>
+      <c r="K144" t="n">
+        <v>-0.1346263</v>
       </c>
     </row>
     <row r="145">
@@ -6284,6 +6580,8 @@
       </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6320,10 +6618,12 @@
           <t>Bethnal Green Road, Globe Town, Bethnal Green, London Borough of Tower Hamlets, London, Greater London, England, E2 0EG, United Kingdom</t>
         </is>
       </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>(51.5271697, -0.0582669, 0.0)</t>
-        </is>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>51.5271697</v>
+      </c>
+      <c r="K146" t="n">
+        <v>-0.0582669</v>
       </c>
     </row>
     <row r="147">
@@ -6361,10 +6661,12 @@
           <t>New Oxford Street, St Giles, Bloomsbury, London Borough of Camden, London, Greater London, England, WC1A 1HD, United Kingdom</t>
         </is>
       </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>(51.5165617, -0.1291954, 0.0)</t>
-        </is>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>51.5165617</v>
+      </c>
+      <c r="K147" t="n">
+        <v>-0.1291954</v>
       </c>
     </row>
     <row r="148">
@@ -6402,10 +6704,12 @@
           <t>Daebak, 316-318, Kennington Lane, Kennington Cross, Vauxhall, London Borough of Lambeth, London, Greater London, England, SE11 5HY, United Kingdom</t>
         </is>
       </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>(51.4865521, -0.1190103, 0.0)</t>
-        </is>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>51.4865521</v>
+      </c>
+      <c r="K148" t="n">
+        <v>-0.1190103</v>
       </c>
     </row>
     <row r="149">
@@ -6443,10 +6747,12 @@
           <t>11, Greek Street, Soho, London, Greater London, England, W1D 4DN, United Kingdom</t>
         </is>
       </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>(51.5144122, -0.1309285, 0.0)</t>
-        </is>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>51.5144122</v>
+      </c>
+      <c r="K149" t="n">
+        <v>-0.1309285</v>
       </c>
     </row>
     <row r="150">
@@ -6481,6 +6787,8 @@
       </c>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
